--- a/Dokumentation/Time Recordings/time_recording.xlsx
+++ b/Dokumentation/Time Recordings/time_recording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Dropbox\Dropbox\Semester_4\PRO4\Energy-Mangement-System\Dokumentation\Time Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582136D-9978-433A-8F5A-2EA11B2B8B50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E47DB-65ED-4317-9BA1-C1287F6DE936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="134">
   <si>
     <t xml:space="preserve">Time Recording </t>
   </si>
@@ -364,6 +364,81 @@
   </si>
   <si>
     <t>08.07 - 14.07.2019</t>
+  </si>
+  <si>
+    <t>Aufsetzen und Installieren der Benötigten Pakete auf dem Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesen in KNX Bindungs, OpenHAB Setup, OpenHAB Items, Groups und Things. </t>
+  </si>
+  <si>
+    <t>Recherche/Konfiguration</t>
+  </si>
+  <si>
+    <t>Konfiguration</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Erstellung einer Energiegerätegruppe in OpenHAB und hinzufügen der Geräte.</t>
+  </si>
+  <si>
+    <t>Organisatorisches</t>
+  </si>
+  <si>
+    <t>Konfigurieren der time_recordings.xlsx Datei</t>
+  </si>
+  <si>
+    <t>Ausbessern der restlichen Fehler im Pflichtenheft.</t>
+  </si>
+  <si>
+    <t>Projektvorschlag entwickeln, Architekturüberlegung, Spezifikation überlegen</t>
+  </si>
+  <si>
+    <t>1. Projektmeeting, siehe Meetingsprotokoll 1</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Erstellung der Erstfassung des Pflichtenhefts.</t>
+  </si>
+  <si>
+    <t>Erstellung der ersten beiden Meetingprotokolle.</t>
+  </si>
+  <si>
+    <t>Erstellung des Git-Repos. Erstellung der Benötigten Dokumentationsdateien</t>
+  </si>
+  <si>
+    <t>Überarbeitung des Pflichtenhefts</t>
+  </si>
+  <si>
+    <t>Erstellen des Projektplans</t>
+  </si>
+  <si>
+    <t>Erstellung des System Architekur Dokuments.</t>
+  </si>
+  <si>
+    <t>Projektmeeting 2, siehe Meetingprotokoll 2</t>
+  </si>
+  <si>
+    <t>Projektmeeting 3, siehe Meetingprotokoll 3</t>
+  </si>
+  <si>
+    <t>Überarbeitung Pflichtenheft + System Architektur</t>
+  </si>
+  <si>
+    <t>Abholen der benötigten Hardware.</t>
+  </si>
+  <si>
+    <t>Datenbank Handling.</t>
+  </si>
+  <si>
+    <t>REST API Setup, Database Queries</t>
+  </si>
+  <si>
+    <t>Erstellen des Server Projekts, Aufbau der REST Abfragen, Programmsetup, Main Loop</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,21 +1598,116 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,28 +1729,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,101 +1740,27 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1695,6 +1769,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1710,8 +1787,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2184,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2207,18 +2285,18 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="83"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2228,18 +2306,18 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="114">
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="122">
         <v>12</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="83"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2252,20 +2330,20 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="82">
+      <c r="D4" s="118"/>
+      <c r="E4" s="130">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="118"/>
+      <c r="G4" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="83"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2275,20 +2353,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109">
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146">
         <v>12</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="115" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2298,21 +2376,21 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="94">
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="141">
         <f>(25*60)*E4</f>
         <v>6000</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2323,19 +2401,19 @@
     </row>
     <row r="7" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="82">
+      <c r="B7" s="128"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="130">
         <f>E6/60</f>
         <v>100</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="103" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="83"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -2363,9 +2441,9 @@
     </row>
     <row r="8" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="22" t="s">
         <v>20</v>
       </c>
@@ -2373,11 +2451,11 @@
         <f>(E6/60)/E5</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="83"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
       <c r="J8" s="25"/>
       <c r="K8" s="11"/>
       <c r="L8" s="26"/>
@@ -2440,64 +2518,64 @@
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="83"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="118"/>
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="1:33" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="134" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="89">
+      <c r="D11" s="136">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="142" t="s">
+      <c r="H11" s="108"/>
+      <c r="I11" s="106" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="37" t="str">
@@ -2580,26 +2658,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="135" t="s">
+      <c r="AD11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="98" t="s">
+      <c r="AE11" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="98" t="s">
+      <c r="AF11" s="124" t="s">
         <v>34</v>
       </c>
       <c r="AG11" s="19"/>
     </row>
     <row r="12" spans="1:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="99"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="39" t="s">
         <v>37</v>
       </c>
@@ -2660,35 +2738,35 @@
       <c r="AC12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
     </row>
     <row r="13" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="116" t="str">
+      <c r="B13" s="81" t="str">
         <f>'Std-A'!A3</f>
         <v>Alexander Karrer</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="102">
+      <c r="C13" s="82"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="89">
         <v>100</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="113">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="129">
+        <v>45</v>
+      </c>
+      <c r="G13" s="114">
         <f>F13-E13</f>
-        <v>-100</v>
-      </c>
-      <c r="H13" s="124"/>
+        <v>-55</v>
+      </c>
+      <c r="H13" s="78"/>
       <c r="I13" s="40" t="s">
         <v>54</v>
       </c>
       <c r="J13" s="41">
         <f>'Std-A'!$C$13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="41">
         <f>'Std-A'!$C$24</f>
@@ -2696,27 +2774,27 @@
       </c>
       <c r="L13" s="41">
         <f>'Std-A'!$C$35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="42">
         <f>'Std-A'!$C$46</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="42">
         <f>'Std-A'!$C$57</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="42">
         <f>'Std-A'!$C$68</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="42">
         <f>'Std-A'!$C$79</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="42">
         <f>'Std-A'!$C$90</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R13" s="42">
         <f>'Std-A'!$C$101</f>
@@ -2768,31 +2846,31 @@
       </c>
       <c r="AD13" s="43">
         <f t="shared" ref="AD13:AD27" si="0">SUM(J13:AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="100">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="103">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>100</v>
       </c>
-      <c r="AF13" s="95">
+      <c r="AF13" s="101">
         <f>AD14-AE13</f>
-        <v>-100</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="119"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="40" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="44">
         <f>'Std-A'!$C$12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="44">
         <f>'Std-A'!$C$23</f>
@@ -2800,15 +2878,15 @@
       </c>
       <c r="L14" s="44">
         <f>'Std-A'!$C$34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M14" s="44">
         <f>'Std-A'!$C$45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="44">
         <f>'Std-A'!$C$56</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="44">
         <f>'Std-A'!$C$67</f>
@@ -2816,11 +2894,11 @@
       </c>
       <c r="P14" s="44">
         <f>'Std-A'!$C$78</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="44">
         <f>'Std-A'!$C$89</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R14" s="44">
         <f>'Std-A'!$C$100</f>
@@ -2872,19 +2950,19 @@
       </c>
       <c r="AD14" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
+        <v>45</v>
+      </c>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
     </row>
     <row r="15" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="121"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="77"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="46" t="s">
         <v>30</v>
       </c>
@@ -2898,7 +2976,7 @@
       </c>
       <c r="L15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="47">
         <f t="shared" si="1"/>
@@ -2910,15 +2988,15 @@
       </c>
       <c r="O15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R15" s="47">
         <f t="shared" si="1"/>
@@ -2972,29 +3050,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
     </row>
     <row r="16" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="116" t="str">
+      <c r="B16" s="81" t="str">
         <f>'Std-B'!A3</f>
         <v>----</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="102">
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="89">
         <f>IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F16" s="115">
         <f>IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="75">
         <f>F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="124"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="40" t="s">
         <v>54</v>
       </c>
@@ -3074,23 +3152,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="100">
+      <c r="AE16" s="103">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="95">
+      <c r="AF16" s="101">
         <f>AD17-AE16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="77"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="53" t="s">
         <v>58</v>
       </c>
@@ -3170,17 +3248,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="121"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="77"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="55" t="s">
         <v>30</v>
       </c>
@@ -3268,28 +3346,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="134"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="102"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="102">
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="89">
         <f>IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="130">
+      <c r="F19" s="92">
         <f>IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="75">
         <f>F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="124"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="57" t="s">
         <v>54</v>
       </c>
@@ -3377,23 +3455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="100">
+      <c r="AE19" s="103">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="136">
+      <c r="AF19" s="100">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="119"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="77"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="53" t="s">
         <v>58</v>
       </c>
@@ -3481,17 +3559,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="121"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="77"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="46" t="s">
         <v>30</v>
       </c>
@@ -3579,29 +3657,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="116" t="str">
+      <c r="B22" s="81" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="102">
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="89">
         <f>IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="130">
+      <c r="F22" s="92">
         <f>IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="75">
         <f>F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="124"/>
+      <c r="H22" s="78"/>
       <c r="I22" s="40" t="s">
         <v>54</v>
       </c>
@@ -3689,23 +3767,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="100">
+      <c r="AE22" s="103">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="95">
+      <c r="AF22" s="101">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="77"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="53" t="s">
         <v>58</v>
       </c>
@@ -3793,17 +3871,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="121"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="77"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="55" t="s">
         <v>30</v>
       </c>
@@ -3891,29 +3969,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="134"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="102"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="116" t="str">
+      <c r="B25" s="81" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="102">
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="89">
         <f>IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="130">
+      <c r="F25" s="92">
         <f>IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="75">
         <f>F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="124"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="57" t="s">
         <v>54</v>
       </c>
@@ -4001,23 +4079,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="137">
+      <c r="AE25" s="104">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="136">
+      <c r="AF25" s="100">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="119"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="77"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="53" t="s">
         <v>58</v>
       </c>
@@ -4105,17 +4183,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="77"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="53" t="s">
         <v>30</v>
       </c>
@@ -4203,8 +4281,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
     </row>
     <row r="28" spans="2:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
@@ -7509,56 +7587,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E7:F7"/>
@@ -7573,6 +7601,56 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="I25:AF27">
     <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
@@ -7683,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:B199"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7698,37 +7776,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="154"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -7741,10 +7819,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7753,12 +7831,18 @@
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="13">
+        <v>120</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="166" t="s">
+        <v>118</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -7785,12 +7869,18 @@
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="13">
+        <v>60</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="166" t="s">
+        <v>119</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -7942,46 +8032,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="154"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -7994,10 +8084,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -8206,35 +8296,35 @@
       <c r="D23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="27">
         <v>0</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="155"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -8247,10 +8337,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -8259,12 +8349,18 @@
       <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="10">
+        <v>240</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="166" t="s">
+        <v>121</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -8291,12 +8387,18 @@
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="10">
+        <v>60</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="166" t="s">
+        <v>122</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -8323,12 +8425,18 @@
       <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="10">
+        <v>120</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="166" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -8355,12 +8463,18 @@
       <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="10">
+        <v>60</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="166" t="s">
+        <v>127</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -8454,40 +8568,40 @@
       <c r="B34" s="149"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D34" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="151"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -8500,10 +8614,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -8512,12 +8626,18 @@
       <c r="A39" s="8">
         <v>1</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="10">
+        <v>60</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="166" t="s">
+        <v>124</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -8544,12 +8664,18 @@
       <c r="A40" s="8">
         <v>2</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="10">
+        <v>120</v>
+      </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="166" t="s">
+        <v>125</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -8576,12 +8702,18 @@
       <c r="A41" s="8">
         <v>3</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="10">
+        <v>120</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="166" t="s">
+        <v>126</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -8707,40 +8839,40 @@
       <c r="B45" s="149"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="93"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="24">
-        <v>0</v>
-      </c>
-      <c r="D46" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="151"/>
+      <c r="E46" s="155"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="154"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -8753,10 +8885,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -8765,12 +8897,18 @@
       <c r="A50" s="8">
         <v>1</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="13">
+        <v>60</v>
+      </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="166" t="s">
+        <v>128</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -8797,12 +8935,18 @@
       <c r="A51" s="8">
         <v>2</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="13">
+        <v>120</v>
+      </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="166" t="s">
+        <v>129</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -8960,40 +9104,40 @@
       <c r="B56" s="149"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="27">
-        <v>0</v>
-      </c>
-      <c r="D57" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="151"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="154"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -9006,10 +9150,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="83"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -9218,35 +9362,35 @@
       <c r="D67" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="93"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="27">
-        <v>0</v>
-      </c>
-      <c r="D68" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="151"/>
+      <c r="E68" s="155"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="154"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -9259,10 +9403,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -9271,12 +9415,18 @@
       <c r="A72" s="8">
         <v>1</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
+      <c r="B72" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="13">
+        <v>300</v>
+      </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="166" t="s">
+        <v>110</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -9303,12 +9453,18 @@
       <c r="A73" s="8">
         <v>2</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="13">
+        <v>30</v>
+      </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="166" t="s">
+        <v>116</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -9335,12 +9491,18 @@
       <c r="A74" s="8">
         <v>3</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="10">
+        <v>60</v>
+      </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="166" t="s">
+        <v>117</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -9367,12 +9529,18 @@
       <c r="A75" s="8">
         <v>4</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="10">
+        <v>30</v>
+      </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="166" t="s">
+        <v>130</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -9466,40 +9634,40 @@
       <c r="B78" s="149"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D78" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="27">
-        <v>0</v>
-      </c>
-      <c r="D79" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="151"/>
+      <c r="E79" s="155"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -9512,10 +9680,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="118"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -9524,12 +9692,18 @@
       <c r="A83" s="8">
         <v>1</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="13">
+        <v>120</v>
+      </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="166" t="s">
+        <v>109</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -9556,12 +9730,18 @@
       <c r="A84" s="8">
         <v>2</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="13">
+        <v>300</v>
+      </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="12"/>
+      <c r="E84" s="166" t="s">
+        <v>133</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -9588,12 +9768,18 @@
       <c r="A85" s="8">
         <v>3</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="10">
+        <v>120</v>
+      </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="9"/>
+      <c r="E85" s="166" t="s">
+        <v>114</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -9620,12 +9806,18 @@
       <c r="A86" s="8">
         <v>4</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="10">
+        <v>180</v>
+      </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="166" t="s">
+        <v>131</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -9652,12 +9844,18 @@
       <c r="A87" s="8">
         <v>5</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="10">
+        <v>420</v>
+      </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="166" t="s">
+        <v>132</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -9719,40 +9917,40 @@
       <c r="B89" s="149"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D89" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="93"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="146" t="s">
+      <c r="A90" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="147"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="27">
-        <v>0</v>
-      </c>
-      <c r="D90" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="151"/>
+      <c r="D90" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="155"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153" t="s">
+      <c r="A92" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -9765,10 +9963,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -9977,35 +10175,35 @@
       <c r="D100" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="93"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="146" t="s">
+      <c r="A101" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="147"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="27">
         <v>0</v>
       </c>
-      <c r="D101" s="146" t="s">
+      <c r="D101" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="151"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
+      <c r="A103" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="154"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -10018,10 +10216,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="150" t="s">
+      <c r="C104" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -10230,35 +10428,35 @@
       <c r="D111" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="93"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="146" t="s">
+      <c r="A112" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="147"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="27">
         <v>0</v>
       </c>
-      <c r="D112" s="146" t="s">
+      <c r="D112" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="151"/>
+      <c r="E112" s="155"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="A113" s="156"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="153" t="s">
+      <c r="A114" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="151"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -10271,10 +10469,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="150" t="s">
+      <c r="C115" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -10483,35 +10681,35 @@
       <c r="D122" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="93"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="147"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="27">
         <v>0</v>
       </c>
-      <c r="D123" s="146" t="s">
+      <c r="D123" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="151"/>
+      <c r="E123" s="155"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="152"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="A124" s="156"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="153" t="s">
+      <c r="A125" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="154"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="151"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -10524,10 +10722,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="150" t="s">
+      <c r="C126" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="118"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -10736,35 +10934,35 @@
       <c r="D133" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="93"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="147"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="27">
         <v>0</v>
       </c>
-      <c r="D134" s="146" t="s">
+      <c r="D134" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="151"/>
+      <c r="E134" s="155"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
+      <c r="A135" s="156"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="117"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="154"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="151"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -10777,10 +10975,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="150" t="s">
+      <c r="C137" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="118"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -10989,35 +11187,35 @@
       <c r="D144" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="93"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="147"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="146" t="s">
+      <c r="D145" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="151"/>
+      <c r="E145" s="155"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="A146" s="156"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="117"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="154"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="151"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11030,10 +11228,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="150" t="s">
+      <c r="C148" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="118"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -11242,35 +11440,35 @@
       <c r="D155" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="93"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="147"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="146" t="s">
+      <c r="D156" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="151"/>
+      <c r="E156" s="155"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="A157" s="156"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="154"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11283,10 +11481,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="150" t="s">
+      <c r="C159" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="118"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -11495,35 +11693,35 @@
       <c r="D166" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="93"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="147"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="146" t="s">
+      <c r="D167" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="151"/>
+      <c r="E167" s="155"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="152"/>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="153" t="s">
+      <c r="A169" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="154"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="151"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11536,10 +11734,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="118"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -11748,35 +11946,35 @@
       <c r="D177" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="93"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
+      <c r="A178" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="147"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="146" t="s">
+      <c r="D178" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="151"/>
+      <c r="E178" s="155"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="152"/>
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="153" t="s">
+      <c r="A180" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="154"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11789,10 +11987,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="150" t="s">
+      <c r="C181" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="83"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -12001,35 +12199,35 @@
       <c r="D188" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="93"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="146" t="s">
+      <c r="A189" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="154"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="146" t="s">
+      <c r="D189" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151"/>
+      <c r="E189" s="155"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="152"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
+      <c r="A190" s="156"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
-      <c r="D191" s="154"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="151"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12042,10 +12240,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="83"/>
+      <c r="D192" s="118"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -12254,35 +12452,35 @@
       <c r="D199" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="93"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="146" t="s">
+      <c r="A200" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="147"/>
+      <c r="B200" s="154"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="146" t="s">
+      <c r="D200" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="151"/>
+      <c r="E200" s="155"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="152"/>
-      <c r="B201" s="104"/>
-      <c r="C201" s="104"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
+      <c r="A201" s="156"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="153" t="s">
+      <c r="A202" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="104"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="154"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="117"/>
+      <c r="D202" s="151"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12295,10 +12493,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="83"/>
+      <c r="D203" s="118"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -12507,35 +12705,35 @@
       <c r="D210" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="93"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="146" t="s">
+      <c r="A211" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="147"/>
+      <c r="B211" s="154"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="146" t="s">
+      <c r="D211" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="151"/>
+      <c r="E211" s="155"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="152"/>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
+      <c r="A212" s="156"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="153" t="s">
+      <c r="A213" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="154"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="117"/>
+      <c r="D213" s="151"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12548,10 +12746,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="150" t="s">
+      <c r="C214" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="83"/>
+      <c r="D214" s="118"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -12760,20 +12958,20 @@
       <c r="D221" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="93"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="146" t="s">
+      <c r="A222" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="147"/>
+      <c r="B222" s="154"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="146" t="s">
+      <c r="D222" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="151"/>
+      <c r="E222" s="155"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13555,6 +13753,123 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A135:E135"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A37:D37"/>
@@ -13579,123 +13894,6 @@
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13721,38 +13919,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="str">
+      <c r="A3" s="150" t="str">
         <f>'dynamic Data'!B25</f>
         <v>----</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="154"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -13765,10 +13963,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -13966,10 +14164,10 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
@@ -13977,35 +14175,35 @@
       <c r="D12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="154"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -14018,10 +14216,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -14230,35 +14428,35 @@
       <c r="D23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="155"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -14271,10 +14469,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -14483,35 +14681,35 @@
       <c r="D34" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="151"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -14524,10 +14722,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -14736,35 +14934,35 @@
       <c r="D45" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="93"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="151"/>
+      <c r="E46" s="155"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="154"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -14777,10 +14975,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -14989,35 +15187,35 @@
       <c r="D56" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="146" t="s">
+      <c r="D57" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="151"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="154"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -15030,10 +15228,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="83"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -15242,35 +15440,35 @@
       <c r="D67" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="93"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="151"/>
+      <c r="E68" s="155"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="154"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -15283,10 +15481,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -15495,35 +15693,35 @@
       <c r="D78" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="151"/>
+      <c r="E79" s="155"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -15536,10 +15734,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="118"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -15748,35 +15946,35 @@
       <c r="D89" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="93"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="146" t="s">
+      <c r="A90" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="147"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="146" t="s">
+      <c r="D90" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="151"/>
+      <c r="E90" s="155"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153" t="s">
+      <c r="A92" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -15789,10 +15987,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -16001,35 +16199,35 @@
       <c r="D100" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="93"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="146" t="s">
+      <c r="A101" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="147"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="146" t="s">
+      <c r="D101" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="151"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
+      <c r="A103" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="154"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -16042,10 +16240,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="150" t="s">
+      <c r="C104" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -16254,35 +16452,35 @@
       <c r="D111" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="93"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="146" t="s">
+      <c r="A112" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="147"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="146" t="s">
+      <c r="D112" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="151"/>
+      <c r="E112" s="155"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="A113" s="156"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="153" t="s">
+      <c r="A114" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="151"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -16295,10 +16493,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="150" t="s">
+      <c r="C115" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -16507,35 +16705,35 @@
       <c r="D122" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="93"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="147"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="146" t="s">
+      <c r="D123" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="151"/>
+      <c r="E123" s="155"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="152"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="A124" s="156"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="153" t="s">
+      <c r="A125" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="154"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="151"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -16548,10 +16746,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="150" t="s">
+      <c r="C126" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="118"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -16760,35 +16958,35 @@
       <c r="D133" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="93"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="147"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="146" t="s">
+      <c r="D134" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="151"/>
+      <c r="E134" s="155"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
+      <c r="A135" s="156"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="117"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="154"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="151"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -16801,10 +16999,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="150" t="s">
+      <c r="C137" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="118"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -17013,35 +17211,35 @@
       <c r="D144" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="93"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="147"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="146" t="s">
+      <c r="D145" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="151"/>
+      <c r="E145" s="155"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="A146" s="156"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="117"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="154"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="151"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17054,10 +17252,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="150" t="s">
+      <c r="C148" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="118"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -17266,35 +17464,35 @@
       <c r="D155" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="93"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="147"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="146" t="s">
+      <c r="D156" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="151"/>
+      <c r="E156" s="155"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="A157" s="156"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="154"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17307,10 +17505,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="150" t="s">
+      <c r="C159" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="118"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -17519,35 +17717,35 @@
       <c r="D166" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="93"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="147"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="146" t="s">
+      <c r="D167" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="151"/>
+      <c r="E167" s="155"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="152"/>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="153" t="s">
+      <c r="A169" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="154"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="151"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17560,10 +17758,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="118"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -17772,35 +17970,35 @@
       <c r="D177" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="93"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
+      <c r="A178" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="147"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="146" t="s">
+      <c r="D178" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="151"/>
+      <c r="E178" s="155"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="152"/>
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="153" t="s">
+      <c r="A180" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="154"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17813,10 +18011,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="150" t="s">
+      <c r="C181" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="83"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -18025,35 +18223,35 @@
       <c r="D188" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="93"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="146" t="s">
+      <c r="A189" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="154"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="146" t="s">
+      <c r="D189" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151"/>
+      <c r="E189" s="155"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="152"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
+      <c r="A190" s="156"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
-      <c r="D191" s="154"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="151"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18066,10 +18264,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="83"/>
+      <c r="D192" s="118"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -18278,35 +18476,35 @@
       <c r="D199" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="93"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="146" t="s">
+      <c r="A200" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="147"/>
+      <c r="B200" s="154"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="146" t="s">
+      <c r="D200" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="151"/>
+      <c r="E200" s="155"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="152"/>
-      <c r="B201" s="104"/>
-      <c r="C201" s="104"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
+      <c r="A201" s="156"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="153" t="s">
+      <c r="A202" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="104"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="154"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="117"/>
+      <c r="D202" s="151"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18319,10 +18517,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="83"/>
+      <c r="D203" s="118"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -18531,35 +18729,35 @@
       <c r="D210" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="93"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="146" t="s">
+      <c r="A211" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="147"/>
+      <c r="B211" s="154"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="146" t="s">
+      <c r="D211" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="151"/>
+      <c r="E211" s="155"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="152"/>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
+      <c r="A212" s="156"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="153" t="s">
+      <c r="A213" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="154"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="117"/>
+      <c r="D213" s="151"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18572,10 +18770,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="150" t="s">
+      <c r="C214" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="83"/>
+      <c r="D214" s="118"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -18784,20 +18982,20 @@
       <c r="D221" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="93"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="146" t="s">
+      <c r="A222" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="147"/>
+      <c r="B222" s="154"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="146" t="s">
+      <c r="D222" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="151"/>
+      <c r="E222" s="155"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19579,6 +19777,123 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="C159:D159"/>
     <mergeCell ref="A168:E168"/>
     <mergeCell ref="A166:B166"/>
@@ -19603,123 +19918,6 @@
     <mergeCell ref="A178:B178"/>
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="C214:D214"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -19745,38 +19943,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="str">
+      <c r="A3" s="161" t="str">
         <f>'dynamic Data'!B26</f>
         <v>----</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="154"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -19789,10 +19987,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -19990,10 +20188,10 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
@@ -20001,35 +20199,35 @@
       <c r="D12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="154"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -20042,10 +20240,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -20254,35 +20452,35 @@
       <c r="D23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="155"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -20295,10 +20493,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -20507,35 +20705,35 @@
       <c r="D34" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="151"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -20548,10 +20746,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -20760,35 +20958,35 @@
       <c r="D45" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="93"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="151"/>
+      <c r="E46" s="155"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="154"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -20801,10 +20999,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -21013,35 +21211,35 @@
       <c r="D56" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="146" t="s">
+      <c r="D57" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="151"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="154"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -21054,10 +21252,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="83"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -21266,35 +21464,35 @@
       <c r="D67" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="93"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="151"/>
+      <c r="E68" s="155"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="154"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -21307,10 +21505,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -21519,35 +21717,35 @@
       <c r="D78" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="151"/>
+      <c r="E79" s="155"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -21560,10 +21758,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="118"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -21772,35 +21970,35 @@
       <c r="D89" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="93"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="146" t="s">
+      <c r="A90" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="147"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="146" t="s">
+      <c r="D90" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="151"/>
+      <c r="E90" s="155"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153" t="s">
+      <c r="A92" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -21813,10 +22011,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -22025,35 +22223,35 @@
       <c r="D100" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="93"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="146" t="s">
+      <c r="A101" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="147"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="146" t="s">
+      <c r="D101" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="151"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
+      <c r="A103" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="154"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -22066,10 +22264,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="150" t="s">
+      <c r="C104" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -22278,35 +22476,35 @@
       <c r="D111" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="93"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="146" t="s">
+      <c r="A112" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="147"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="146" t="s">
+      <c r="D112" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="151"/>
+      <c r="E112" s="155"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="A113" s="156"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="153" t="s">
+      <c r="A114" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="151"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -22319,10 +22517,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="150" t="s">
+      <c r="C115" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -22531,35 +22729,35 @@
       <c r="D122" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="93"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="147"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="146" t="s">
+      <c r="D123" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="151"/>
+      <c r="E123" s="155"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="152"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="A124" s="156"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="153" t="s">
+      <c r="A125" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="154"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="151"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -22572,10 +22770,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="150" t="s">
+      <c r="C126" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="118"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -22784,35 +22982,35 @@
       <c r="D133" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="93"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="147"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="146" t="s">
+      <c r="D134" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="151"/>
+      <c r="E134" s="155"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
+      <c r="A135" s="156"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="117"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="154"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="151"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -22825,10 +23023,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="150" t="s">
+      <c r="C137" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="118"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -23037,35 +23235,35 @@
       <c r="D144" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="93"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="147"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="146" t="s">
+      <c r="D145" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="151"/>
+      <c r="E145" s="155"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="A146" s="156"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="117"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="154"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="151"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23078,10 +23276,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="150" t="s">
+      <c r="C148" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="118"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -23290,35 +23488,35 @@
       <c r="D155" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="93"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="147"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="146" t="s">
+      <c r="D156" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="151"/>
+      <c r="E156" s="155"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="A157" s="156"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="154"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23331,10 +23529,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="150" t="s">
+      <c r="C159" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="118"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -23543,35 +23741,35 @@
       <c r="D166" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="93"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="147"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="146" t="s">
+      <c r="D167" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="151"/>
+      <c r="E167" s="155"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="152"/>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="153" t="s">
+      <c r="A169" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="154"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="151"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23584,10 +23782,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="118"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -23796,35 +23994,35 @@
       <c r="D177" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="93"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
+      <c r="A178" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="147"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="146" t="s">
+      <c r="D178" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="151"/>
+      <c r="E178" s="155"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="152"/>
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="153" t="s">
+      <c r="A180" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="154"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23837,10 +24035,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="150" t="s">
+      <c r="C181" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="83"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -24049,35 +24247,35 @@
       <c r="D188" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="93"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="146" t="s">
+      <c r="A189" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="154"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="146" t="s">
+      <c r="D189" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151"/>
+      <c r="E189" s="155"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="152"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
+      <c r="A190" s="156"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
-      <c r="D191" s="154"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="151"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24090,10 +24288,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="83"/>
+      <c r="D192" s="118"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -24302,35 +24500,35 @@
       <c r="D199" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="93"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="146" t="s">
+      <c r="A200" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="147"/>
+      <c r="B200" s="154"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="146" t="s">
+      <c r="D200" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="151"/>
+      <c r="E200" s="155"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="152"/>
-      <c r="B201" s="104"/>
-      <c r="C201" s="104"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
+      <c r="A201" s="156"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="153" t="s">
+      <c r="A202" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="104"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="154"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="117"/>
+      <c r="D202" s="151"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24343,10 +24541,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="83"/>
+      <c r="D203" s="118"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -24555,35 +24753,35 @@
       <c r="D210" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="93"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="146" t="s">
+      <c r="A211" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="147"/>
+      <c r="B211" s="154"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="146" t="s">
+      <c r="D211" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="151"/>
+      <c r="E211" s="155"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="152"/>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
+      <c r="A212" s="156"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="153" t="s">
+      <c r="A213" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="154"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="117"/>
+      <c r="D213" s="151"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24596,10 +24794,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="150" t="s">
+      <c r="C214" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="83"/>
+      <c r="D214" s="118"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -24808,20 +25006,20 @@
       <c r="D221" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="93"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="146" t="s">
+      <c r="A222" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="147"/>
+      <c r="B222" s="154"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="146" t="s">
+      <c r="D222" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="151"/>
+      <c r="E222" s="155"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25603,60 +25801,69 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A91:E91"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="C82:D82"/>
@@ -25681,69 +25888,60 @@
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C203:D203"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -25769,38 +25967,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="str">
+      <c r="A3" s="150" t="str">
         <f>'dynamic Data'!B27</f>
         <v>----</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="154"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -25813,10 +26011,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -26014,10 +26212,10 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
@@ -26025,35 +26223,35 @@
       <c r="D12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="154"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -26066,10 +26264,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -26278,35 +26476,35 @@
       <c r="D23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="155"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -26319,10 +26517,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -26531,35 +26729,35 @@
       <c r="D34" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="151"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -26572,10 +26770,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -26784,35 +26982,35 @@
       <c r="D45" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="93"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="151"/>
+      <c r="E46" s="155"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="154"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -26825,10 +27023,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -27037,35 +27235,35 @@
       <c r="D56" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="146" t="s">
+      <c r="D57" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="151"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="154"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -27078,10 +27276,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="83"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -27290,35 +27488,35 @@
       <c r="D67" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="93"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="151"/>
+      <c r="E68" s="155"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="154"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -27331,10 +27529,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -27543,35 +27741,35 @@
       <c r="D78" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="151"/>
+      <c r="E79" s="155"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -27584,10 +27782,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="118"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -27796,35 +27994,35 @@
       <c r="D89" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="93"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="146" t="s">
+      <c r="A90" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="147"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="146" t="s">
+      <c r="D90" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="151"/>
+      <c r="E90" s="155"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153" t="s">
+      <c r="A92" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -27837,10 +28035,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -28049,35 +28247,35 @@
       <c r="D100" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="93"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="146" t="s">
+      <c r="A101" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="147"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="146" t="s">
+      <c r="D101" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="151"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
+      <c r="A103" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="154"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -28090,10 +28288,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="150" t="s">
+      <c r="C104" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -28302,35 +28500,35 @@
       <c r="D111" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="93"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="146" t="s">
+      <c r="A112" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="147"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="146" t="s">
+      <c r="D112" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="151"/>
+      <c r="E112" s="155"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="A113" s="156"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="153" t="s">
+      <c r="A114" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="151"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -28343,10 +28541,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="150" t="s">
+      <c r="C115" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -28555,35 +28753,35 @@
       <c r="D122" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="93"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="147"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="146" t="s">
+      <c r="D123" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="151"/>
+      <c r="E123" s="155"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="152"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="A124" s="156"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="153" t="s">
+      <c r="A125" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="154"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="151"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -28596,10 +28794,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="150" t="s">
+      <c r="C126" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="118"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -28808,35 +29006,35 @@
       <c r="D133" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="93"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="147"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="146" t="s">
+      <c r="D134" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="151"/>
+      <c r="E134" s="155"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
+      <c r="A135" s="156"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="117"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="154"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="151"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -28849,10 +29047,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="150" t="s">
+      <c r="C137" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="118"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -29061,35 +29259,35 @@
       <c r="D144" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="93"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="147"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="146" t="s">
+      <c r="D145" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="151"/>
+      <c r="E145" s="155"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="A146" s="156"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="117"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="154"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="151"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29102,10 +29300,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="150" t="s">
+      <c r="C148" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="118"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -29314,35 +29512,35 @@
       <c r="D155" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="93"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="147"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="146" t="s">
+      <c r="D156" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="151"/>
+      <c r="E156" s="155"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="A157" s="156"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="154"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29355,10 +29553,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="150" t="s">
+      <c r="C159" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="118"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -29567,35 +29765,35 @@
       <c r="D166" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="93"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="147"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="146" t="s">
+      <c r="D167" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="151"/>
+      <c r="E167" s="155"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="152"/>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="153" t="s">
+      <c r="A169" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="154"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="151"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29608,10 +29806,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="118"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -29820,35 +30018,35 @@
       <c r="D177" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="93"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
+      <c r="A178" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="147"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="146" t="s">
+      <c r="D178" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="151"/>
+      <c r="E178" s="155"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="152"/>
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="153" t="s">
+      <c r="A180" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="154"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29861,10 +30059,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="150" t="s">
+      <c r="C181" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="83"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -30073,35 +30271,35 @@
       <c r="D188" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="93"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="146" t="s">
+      <c r="A189" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="154"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="146" t="s">
+      <c r="D189" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151"/>
+      <c r="E189" s="155"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="152"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
+      <c r="A190" s="156"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
-      <c r="D191" s="154"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="151"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30114,10 +30312,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="83"/>
+      <c r="D192" s="118"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -30326,35 +30524,35 @@
       <c r="D199" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="93"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="146" t="s">
+      <c r="A200" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="147"/>
+      <c r="B200" s="154"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="146" t="s">
+      <c r="D200" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="151"/>
+      <c r="E200" s="155"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="152"/>
-      <c r="B201" s="104"/>
-      <c r="C201" s="104"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
+      <c r="A201" s="156"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="153" t="s">
+      <c r="A202" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="104"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="154"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="117"/>
+      <c r="D202" s="151"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30367,10 +30565,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="83"/>
+      <c r="D203" s="118"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -30579,35 +30777,35 @@
       <c r="D210" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="93"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="146" t="s">
+      <c r="A211" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="147"/>
+      <c r="B211" s="154"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="146" t="s">
+      <c r="D211" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="151"/>
+      <c r="E211" s="155"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="152"/>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
+      <c r="A212" s="156"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="153" t="s">
+      <c r="A213" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="154"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="117"/>
+      <c r="D213" s="151"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30620,10 +30818,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="150" t="s">
+      <c r="C214" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="83"/>
+      <c r="D214" s="118"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -30832,20 +31030,20 @@
       <c r="D221" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="93"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="146" t="s">
+      <c r="A222" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="147"/>
+      <c r="B222" s="154"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="146" t="s">
+      <c r="D222" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="151"/>
+      <c r="E222" s="155"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31627,46 +31825,80 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A190:E190"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D78:E78"/>
@@ -31691,83 +31923,49 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A125:D125"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C71:D71"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31793,38 +31991,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="str">
+      <c r="A3" s="150" t="str">
         <f>'dynamic Data'!B28</f>
         <v>----</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="154"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -31837,10 +32035,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -32038,10 +32236,10 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
@@ -32049,35 +32247,35 @@
       <c r="D12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="154"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -32090,10 +32288,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -32302,35 +32500,35 @@
       <c r="D23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="155"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -32343,10 +32541,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -32555,35 +32753,35 @@
       <c r="D34" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="140"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="151"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="154"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -32596,10 +32794,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -32808,35 +33006,35 @@
       <c r="D45" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="93"/>
+      <c r="E45" s="140"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="151"/>
+      <c r="E46" s="155"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="154"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -32849,10 +33047,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="118"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -33061,35 +33259,35 @@
       <c r="D56" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="140"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="147"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="146" t="s">
+      <c r="D57" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="151"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153" t="s">
+      <c r="A59" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="154"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -33102,10 +33300,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="150" t="s">
+      <c r="C60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="83"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -33314,35 +33512,35 @@
       <c r="D67" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="93"/>
+      <c r="E67" s="140"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="151"/>
+      <c r="E68" s="155"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
+      <c r="A69" s="156"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="154"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="151"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -33355,10 +33553,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -33567,35 +33765,35 @@
       <c r="D78" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="140"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="151"/>
+      <c r="E79" s="155"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="A80" s="156"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -33608,10 +33806,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="83"/>
+      <c r="D82" s="118"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -33820,35 +34018,35 @@
       <c r="D89" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="93"/>
+      <c r="E89" s="140"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="146" t="s">
+      <c r="A90" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="147"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="146" t="s">
+      <c r="D90" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="151"/>
+      <c r="E90" s="155"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="152"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="156"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="153" t="s">
+      <c r="A92" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="154"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -33861,10 +34059,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="83"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -34073,35 +34271,35 @@
       <c r="D100" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="93"/>
+      <c r="E100" s="140"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="146" t="s">
+      <c r="A101" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="147"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="146" t="s">
+      <c r="D101" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="151"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
+      <c r="A103" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="154"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -34114,10 +34312,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="150" t="s">
+      <c r="C104" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="83"/>
+      <c r="D104" s="118"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -34326,35 +34524,35 @@
       <c r="D111" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="93"/>
+      <c r="E111" s="140"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="146" t="s">
+      <c r="A112" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="147"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="146" t="s">
+      <c r="D112" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="151"/>
+      <c r="E112" s="155"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
+      <c r="A113" s="156"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="153" t="s">
+      <c r="A114" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="154"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="117"/>
+      <c r="D114" s="151"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -34367,10 +34565,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="150" t="s">
+      <c r="C115" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="83"/>
+      <c r="D115" s="118"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -34579,35 +34777,35 @@
       <c r="D122" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="93"/>
+      <c r="E122" s="140"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="147"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="146" t="s">
+      <c r="D123" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="151"/>
+      <c r="E123" s="155"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="152"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="A124" s="156"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="153" t="s">
+      <c r="A125" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="154"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="151"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -34620,10 +34818,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="150" t="s">
+      <c r="C126" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="83"/>
+      <c r="D126" s="118"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -34832,35 +35030,35 @@
       <c r="D133" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="93"/>
+      <c r="E133" s="140"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="147"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="69">
         <v>0</v>
       </c>
-      <c r="D134" s="146" t="s">
+      <c r="D134" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="151"/>
+      <c r="E134" s="155"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
+      <c r="A135" s="156"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="117"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="117"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="154"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="151"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -34873,10 +35071,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="150" t="s">
+      <c r="C137" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="118"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -35085,35 +35283,35 @@
       <c r="D144" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="93"/>
+      <c r="E144" s="140"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146" t="s">
+      <c r="A145" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="147"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="146" t="s">
+      <c r="D145" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="151"/>
+      <c r="E145" s="155"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="152"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
-      <c r="D146" s="104"/>
-      <c r="E146" s="104"/>
+      <c r="A146" s="156"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="117"/>
+      <c r="E146" s="117"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="153" t="s">
+      <c r="A147" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="154"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="151"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35126,10 +35324,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="150" t="s">
+      <c r="C148" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="83"/>
+      <c r="D148" s="118"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -35338,35 +35536,35 @@
       <c r="D155" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="93"/>
+      <c r="E155" s="140"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="146" t="s">
+      <c r="A156" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="147"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="146" t="s">
+      <c r="D156" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="151"/>
+      <c r="E156" s="155"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="152"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
+      <c r="A157" s="156"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="153" t="s">
+      <c r="A158" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="154"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="151"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35379,10 +35577,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="150" t="s">
+      <c r="C159" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="83"/>
+      <c r="D159" s="118"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -35591,35 +35789,35 @@
       <c r="D166" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="93"/>
+      <c r="E166" s="140"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="146" t="s">
+      <c r="A167" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="147"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="146" t="s">
+      <c r="D167" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="151"/>
+      <c r="E167" s="155"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="152"/>
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
+      <c r="A168" s="156"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="153" t="s">
+      <c r="A169" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="154"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="117"/>
+      <c r="D169" s="151"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35632,10 +35830,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="83"/>
+      <c r="D170" s="118"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -35844,35 +36042,35 @@
       <c r="D177" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="93"/>
+      <c r="E177" s="140"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
+      <c r="A178" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="147"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="146" t="s">
+      <c r="D178" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="151"/>
+      <c r="E178" s="155"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="152"/>
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
-      <c r="D179" s="104"/>
-      <c r="E179" s="104"/>
+      <c r="A179" s="156"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="153" t="s">
+      <c r="A180" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="154"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="151"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35885,10 +36083,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="150" t="s">
+      <c r="C181" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="83"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -36097,35 +36295,35 @@
       <c r="D188" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="93"/>
+      <c r="E188" s="140"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="146" t="s">
+      <c r="A189" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="147"/>
+      <c r="B189" s="154"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="146" t="s">
+      <c r="D189" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="151"/>
+      <c r="E189" s="155"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="152"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
+      <c r="A190" s="156"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="153" t="s">
+      <c r="A191" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
-      <c r="D191" s="154"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="151"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36138,10 +36336,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="83"/>
+      <c r="D192" s="118"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -36350,35 +36548,35 @@
       <c r="D199" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="93"/>
+      <c r="E199" s="140"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="146" t="s">
+      <c r="A200" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="147"/>
+      <c r="B200" s="154"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="146" t="s">
+      <c r="D200" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="151"/>
+      <c r="E200" s="155"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="152"/>
-      <c r="B201" s="104"/>
-      <c r="C201" s="104"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
+      <c r="A201" s="156"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="153" t="s">
+      <c r="A202" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="104"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="154"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="117"/>
+      <c r="D202" s="151"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36391,10 +36589,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="83"/>
+      <c r="D203" s="118"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -36603,35 +36801,35 @@
       <c r="D210" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="93"/>
+      <c r="E210" s="140"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="146" t="s">
+      <c r="A211" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="147"/>
+      <c r="B211" s="154"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="146" t="s">
+      <c r="D211" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="151"/>
+      <c r="E211" s="155"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="152"/>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
+      <c r="A212" s="156"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="153" t="s">
+      <c r="A213" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="154"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="117"/>
+      <c r="D213" s="151"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36644,10 +36842,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="150" t="s">
+      <c r="C214" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="83"/>
+      <c r="D214" s="118"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -36856,20 +37054,20 @@
       <c r="D221" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="93"/>
+      <c r="E221" s="140"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="146" t="s">
+      <c r="A222" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="147"/>
+      <c r="B222" s="154"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="146" t="s">
+      <c r="D222" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="151"/>
+      <c r="E222" s="155"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37651,60 +37849,69 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A91:E91"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="C82:D82"/>
@@ -37729,69 +37936,60 @@
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C203:D203"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -37814,10 +38012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -37890,7 +38088,7 @@
       <c r="A10" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="73" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="65"/>
@@ -37917,7 +38115,7 @@
       <c r="A13" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="74" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="65"/>
@@ -37992,14 +38190,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="118"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="118"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">

--- a/Dokumentation/Time Recordings/time_recording.xlsx
+++ b/Dokumentation/Time Recordings/time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Dropbox\Dropbox\Semester_4\PRO4\Energy-Mangement-System\Dokumentation\Time Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E47DB-65ED-4317-9BA1-C1287F6DE936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6978D8-8B91-4E01-A27D-8431D05E650A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,9 +369,6 @@
     <t>Aufsetzen und Installieren der Benötigten Pakete auf dem Raspberry Pi</t>
   </si>
   <si>
-    <t xml:space="preserve">Einlesen in KNX Bindungs, OpenHAB Setup, OpenHAB Items, Groups und Things. </t>
-  </si>
-  <si>
     <t>Recherche/Konfiguration</t>
   </si>
   <si>
@@ -438,7 +435,10 @@
     <t>REST API Setup, Database Queries</t>
   </si>
   <si>
-    <t>Erstellen des Server Projekts, Aufbau der REST Abfragen, Programmsetup, Main Loop</t>
+    <t>Erstellen des Server Projekts, Aufbau der OpenHAB REST Abfragen, Programmsetup, Main Loop</t>
+  </si>
+  <si>
+    <t>Einlesen in KNX Bindungs, OpenHAB Setup, OpenHAB Items, Groups und Things. OpenHAB Config</t>
   </si>
 </sst>
 </file>
@@ -1600,6 +1600,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,6 +1666,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1694,9 +1700,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,9 +1789,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2262,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2285,18 +2285,18 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2306,18 +2306,18 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="122">
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="124">
         <v>12</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="120"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2330,20 +2330,20 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="130">
+      <c r="D4" s="120"/>
+      <c r="E4" s="131">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="123" t="s">
+      <c r="F4" s="120"/>
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2353,20 +2353,20 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146">
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="147">
         <v>12</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="147" t="s">
+      <c r="F5" s="146"/>
+      <c r="G5" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2376,21 +2376,21 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="141">
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="142">
         <f>(25*60)*E4</f>
         <v>6000</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="140"/>
+      <c r="I6" s="141"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2401,19 +2401,19 @@
     </row>
     <row r="7" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="130">
+      <c r="B7" s="129"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="131">
         <f>E6/60</f>
         <v>100</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="120"/>
+      <c r="G7" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -2441,9 +2441,9 @@
     </row>
     <row r="8" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="112"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="22" t="s">
         <v>20</v>
       </c>
@@ -2451,11 +2451,11 @@
         <f>(E6/60)/E5</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="25"/>
       <c r="K8" s="11"/>
       <c r="L8" s="26"/>
@@ -2518,64 +2518,64 @@
     </row>
     <row r="10" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="142" t="s">
+      <c r="I10" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="118"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="1:33" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="135" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="136">
+      <c r="D11" s="137">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="106" t="s">
+      <c r="H11" s="109"/>
+      <c r="I11" s="107" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="37" t="str">
@@ -2658,26 +2658,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="105" t="s">
+      <c r="AD11" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="124" t="s">
+      <c r="AE11" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="124" t="s">
+      <c r="AF11" s="111" t="s">
         <v>34</v>
       </c>
       <c r="AG11" s="19"/>
     </row>
     <row r="12" spans="1:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="135"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="98"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="39" t="s">
         <v>37</v>
       </c>
@@ -2738,29 +2738,29 @@
       <c r="AC12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
     </row>
     <row r="13" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="str">
+      <c r="B13" s="82" t="str">
         <f>'Std-A'!A3</f>
         <v>Alexander Karrer</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="89">
+      <c r="C13" s="83"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="90">
         <v>100</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="115">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>45</v>
-      </c>
-      <c r="G13" s="114">
+        <v>48</v>
+      </c>
+      <c r="G13" s="116">
         <f>F13-E13</f>
-        <v>-55</v>
-      </c>
-      <c r="H13" s="78"/>
+        <v>-52</v>
+      </c>
+      <c r="H13" s="79"/>
       <c r="I13" s="40" t="s">
         <v>54</v>
       </c>
@@ -2794,19 +2794,19 @@
       </c>
       <c r="Q13" s="42">
         <f>'Std-A'!$C$90</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R13" s="42">
         <f>'Std-A'!$C$101</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S13" s="42">
         <f>'Std-A'!$C$112</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T13" s="42">
         <f>'Std-A'!$C$123</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" s="42">
         <f>'Std-A'!$C$134</f>
@@ -2846,25 +2846,25 @@
       </c>
       <c r="AD13" s="43">
         <f t="shared" ref="AD13:AD27" si="0">SUM(J13:AC13)</f>
-        <v>45</v>
-      </c>
-      <c r="AE13" s="103">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="104">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>100</v>
       </c>
-      <c r="AF13" s="101">
+      <c r="AF13" s="102">
         <f>AD14-AE13</f>
-        <v>-55</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="79"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
         <v>58</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="Q14" s="44">
         <f>'Std-A'!$C$89</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R14" s="44">
         <f>'Std-A'!$C$100</f>
@@ -2950,19 +2950,19 @@
       </c>
       <c r="AD14" s="45">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
+        <v>48</v>
+      </c>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
     </row>
     <row r="15" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="79"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="46" t="s">
         <v>30</v>
       </c>
@@ -2996,19 +2996,19 @@
       </c>
       <c r="Q15" s="47">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="S15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="T15" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="U15" s="47">
         <f t="shared" si="1"/>
@@ -3048,31 +3048,31 @@
       </c>
       <c r="AD15" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
+        <v>-52</v>
+      </c>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
     </row>
     <row r="16" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="str">
+      <c r="B16" s="82" t="str">
         <f>'Std-B'!A3</f>
         <v>----</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="89">
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="90">
         <f>IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="117">
         <f>IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="76">
         <f>F16-E16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="40" t="s">
         <v>54</v>
       </c>
@@ -3152,23 +3152,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="103">
+      <c r="AE16" s="104">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="101">
+      <c r="AF16" s="102">
         <f>AD17-AE16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="79"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="53" t="s">
         <v>58</v>
       </c>
@@ -3248,17 +3248,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="79"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="55" t="s">
         <v>30</v>
       </c>
@@ -3346,28 +3346,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="102"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="103"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="89">
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="90">
         <f>IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="93">
         <f>IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="76">
         <f>F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="57" t="s">
         <v>54</v>
       </c>
@@ -3455,23 +3455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="103">
+      <c r="AE19" s="104">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="100">
+      <c r="AF19" s="101">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="79"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="53" t="s">
         <v>58</v>
       </c>
@@ -3559,17 +3559,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="79"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="46" t="s">
         <v>30</v>
       </c>
@@ -3657,29 +3657,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="str">
+      <c r="B22" s="82" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="89">
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="90">
         <f>IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="93">
         <f>IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="76">
         <f>F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="78"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="40" t="s">
         <v>54</v>
       </c>
@@ -3767,23 +3767,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="103">
+      <c r="AE22" s="104">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="101">
+      <c r="AF22" s="102">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="79"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="53" t="s">
         <v>58</v>
       </c>
@@ -3871,17 +3871,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
+      <c r="AE23" s="91"/>
+      <c r="AF23" s="91"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="79"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="55" t="s">
         <v>30</v>
       </c>
@@ -3969,29 +3969,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="102"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="103"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="str">
+      <c r="B25" s="82" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="89">
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="90">
         <f>IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="93">
         <f>IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="76">
         <f>F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="78"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="57" t="s">
         <v>54</v>
       </c>
@@ -4079,23 +4079,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="104">
+      <c r="AE25" s="105">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="100">
+      <c r="AF25" s="101">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="79"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="53" t="s">
         <v>58</v>
       </c>
@@ -4183,17 +4183,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="91"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="79"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="53" t="s">
         <v>30</v>
       </c>
@@ -4281,8 +4281,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
     </row>
     <row r="28" spans="2:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
@@ -7761,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7776,37 +7776,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -7819,10 +7819,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7831,8 +7831,8 @@
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="166" t="s">
-        <v>120</v>
+      <c r="B6" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="13">
         <v>120</v>
@@ -7840,8 +7840,8 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="166" t="s">
-        <v>118</v>
+      <c r="E6" s="75" t="s">
+        <v>117</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -7869,8 +7869,8 @@
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="166" t="s">
-        <v>115</v>
+      <c r="B7" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="13">
         <v>60</v>
@@ -7878,8 +7878,8 @@
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="166" t="s">
-        <v>119</v>
+      <c r="E7" s="75" t="s">
+        <v>118</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -8032,46 +8032,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -8084,10 +8084,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -8285,46 +8285,46 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="18">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="27">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="155"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -8337,10 +8337,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -8349,8 +8349,8 @@
       <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="166" t="s">
-        <v>120</v>
+      <c r="B28" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C28" s="10">
         <v>240</v>
@@ -8358,8 +8358,8 @@
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="166" t="s">
-        <v>121</v>
+      <c r="E28" s="75" t="s">
+        <v>120</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8387,8 +8387,8 @@
       <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="166" t="s">
-        <v>115</v>
+      <c r="B29" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C29" s="10">
         <v>60</v>
@@ -8396,8 +8396,8 @@
       <c r="D29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="166" t="s">
-        <v>122</v>
+      <c r="E29" s="75" t="s">
+        <v>121</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -8425,8 +8425,8 @@
       <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="166" t="s">
-        <v>115</v>
+      <c r="B30" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C30" s="10">
         <v>120</v>
@@ -8434,8 +8434,8 @@
       <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="166" t="s">
-        <v>123</v>
+      <c r="E30" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -8463,8 +8463,8 @@
       <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="166" t="s">
-        <v>115</v>
+      <c r="B31" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C31" s="10">
         <v>60</v>
@@ -8472,8 +8472,8 @@
       <c r="D31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="166" t="s">
-        <v>127</v>
+      <c r="E31" s="75" t="s">
+        <v>126</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -8562,46 +8562,46 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="149"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>8</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="140"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="154"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="24">
         <v>6</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -8614,10 +8614,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="118"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -8626,8 +8626,8 @@
       <c r="A39" s="8">
         <v>1</v>
       </c>
-      <c r="B39" s="166" t="s">
-        <v>120</v>
+      <c r="B39" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C39" s="10">
         <v>60</v>
@@ -8635,8 +8635,8 @@
       <c r="D39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="166" t="s">
-        <v>124</v>
+      <c r="E39" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -8664,8 +8664,8 @@
       <c r="A40" s="8">
         <v>2</v>
       </c>
-      <c r="B40" s="166" t="s">
-        <v>120</v>
+      <c r="B40" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C40" s="10">
         <v>120</v>
@@ -8673,8 +8673,8 @@
       <c r="D40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="166" t="s">
-        <v>125</v>
+      <c r="E40" s="75" t="s">
+        <v>124</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -8702,8 +8702,8 @@
       <c r="A41" s="8">
         <v>3</v>
       </c>
-      <c r="B41" s="166" t="s">
-        <v>120</v>
+      <c r="B41" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C41" s="10">
         <v>120</v>
@@ -8711,8 +8711,8 @@
       <c r="D41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="166" t="s">
-        <v>126</v>
+      <c r="E41" s="75" t="s">
+        <v>125</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -8833,46 +8833,46 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="140"/>
+      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="154"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="24">
         <v>5</v>
       </c>
-      <c r="D46" s="153" t="s">
+      <c r="D46" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="155"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -8885,10 +8885,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="118"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -8897,8 +8897,8 @@
       <c r="A50" s="8">
         <v>1</v>
       </c>
-      <c r="B50" s="166" t="s">
-        <v>115</v>
+      <c r="B50" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C50" s="13">
         <v>60</v>
@@ -8906,8 +8906,8 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="166" t="s">
-        <v>128</v>
+      <c r="E50" s="75" t="s">
+        <v>127</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -8935,8 +8935,8 @@
       <c r="A51" s="8">
         <v>2</v>
       </c>
-      <c r="B51" s="166" t="s">
-        <v>120</v>
+      <c r="B51" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C51" s="13">
         <v>120</v>
@@ -8944,8 +8944,8 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="166" t="s">
-        <v>129</v>
+      <c r="E51" s="75" t="s">
+        <v>128</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -9098,46 +9098,46 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="140"/>
+      <c r="E56" s="141"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="154"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="27">
         <v>3</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -9150,10 +9150,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -9351,46 +9351,46 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="149"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="18">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="140"/>
+      <c r="E67" s="141"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="27">
         <v>3</v>
       </c>
-      <c r="D68" s="153" t="s">
+      <c r="D68" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="155"/>
+      <c r="E68" s="156"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="151"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -9403,10 +9403,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -9415,8 +9415,8 @@
       <c r="A72" s="8">
         <v>1</v>
       </c>
-      <c r="B72" s="166" t="s">
-        <v>111</v>
+      <c r="B72" s="75" t="s">
+        <v>110</v>
       </c>
       <c r="C72" s="13">
         <v>300</v>
@@ -9424,8 +9424,8 @@
       <c r="D72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="166" t="s">
-        <v>110</v>
+      <c r="E72" s="75" t="s">
+        <v>133</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -9453,8 +9453,8 @@
       <c r="A73" s="8">
         <v>2</v>
       </c>
-      <c r="B73" s="166" t="s">
-        <v>115</v>
+      <c r="B73" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C73" s="13">
         <v>30</v>
@@ -9462,8 +9462,8 @@
       <c r="D73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="166" t="s">
-        <v>116</v>
+      <c r="E73" s="75" t="s">
+        <v>115</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -9491,8 +9491,8 @@
       <c r="A74" s="8">
         <v>3</v>
       </c>
-      <c r="B74" s="166" t="s">
-        <v>120</v>
+      <c r="B74" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="C74" s="10">
         <v>60</v>
@@ -9500,8 +9500,8 @@
       <c r="D74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="166" t="s">
-        <v>117</v>
+      <c r="E74" s="75" t="s">
+        <v>116</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -9529,8 +9529,8 @@
       <c r="A75" s="8">
         <v>4</v>
       </c>
-      <c r="B75" s="166" t="s">
-        <v>115</v>
+      <c r="B75" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="C75" s="10">
         <v>30</v>
@@ -9538,8 +9538,8 @@
       <c r="D75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="166" t="s">
-        <v>130</v>
+      <c r="E75" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -9628,46 +9628,46 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="149"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>7</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="140"/>
+      <c r="E78" s="141"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="154"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="27">
         <v>12</v>
       </c>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="155"/>
+      <c r="E79" s="156"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="151"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="152"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -9680,10 +9680,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="152" t="s">
+      <c r="C82" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="118"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -9692,8 +9692,8 @@
       <c r="A83" s="8">
         <v>1</v>
       </c>
-      <c r="B83" s="166" t="s">
-        <v>112</v>
+      <c r="B83" s="75" t="s">
+        <v>111</v>
       </c>
       <c r="C83" s="13">
         <v>120</v>
@@ -9701,7 +9701,7 @@
       <c r="D83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="166" t="s">
+      <c r="E83" s="75" t="s">
         <v>109</v>
       </c>
       <c r="F83" s="3"/>
@@ -9730,17 +9730,17 @@
       <c r="A84" s="8">
         <v>2</v>
       </c>
-      <c r="B84" s="166" t="s">
-        <v>113</v>
+      <c r="B84" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="C84" s="13">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="166" t="s">
-        <v>133</v>
+      <c r="E84" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -9768,8 +9768,8 @@
       <c r="A85" s="8">
         <v>3</v>
       </c>
-      <c r="B85" s="166" t="s">
-        <v>112</v>
+      <c r="B85" s="75" t="s">
+        <v>111</v>
       </c>
       <c r="C85" s="10">
         <v>120</v>
@@ -9777,8 +9777,8 @@
       <c r="D85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="166" t="s">
-        <v>114</v>
+      <c r="E85" s="75" t="s">
+        <v>113</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -9806,17 +9806,17 @@
       <c r="A86" s="8">
         <v>4</v>
       </c>
-      <c r="B86" s="166" t="s">
-        <v>113</v>
+      <c r="B86" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="C86" s="10">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="166" t="s">
-        <v>131</v>
+      <c r="E86" s="75" t="s">
+        <v>130</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -9844,17 +9844,17 @@
       <c r="A87" s="8">
         <v>5</v>
       </c>
-      <c r="B87" s="166" t="s">
-        <v>113</v>
+      <c r="B87" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="C87" s="10">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="166" t="s">
-        <v>132</v>
+      <c r="E87" s="75" t="s">
+        <v>131</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -9911,46 +9911,46 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="149"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
-        <v>19</v>
-      </c>
-      <c r="D89" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="140"/>
+      <c r="E89" s="141"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="154"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="27">
+        <v>20</v>
+      </c>
+      <c r="D90" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="153" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="155"/>
+      <c r="E90" s="156"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="151"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -9963,10 +9963,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="152" t="s">
+      <c r="C93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="118"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -10164,46 +10164,46 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="18">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="140"/>
+      <c r="E100" s="141"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="154"/>
+      <c r="B101" s="155"/>
       <c r="C101" s="27">
-        <v>0</v>
-      </c>
-      <c r="D101" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="155"/>
+      <c r="E101" s="156"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="151"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="152"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -10216,10 +10216,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="118"/>
+      <c r="D104" s="120"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -10417,46 +10417,46 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="149"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="18">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="148" t="s">
+      <c r="D111" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="140"/>
+      <c r="E111" s="141"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="153" t="s">
+      <c r="A112" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="154"/>
+      <c r="B112" s="155"/>
       <c r="C112" s="27">
-        <v>0</v>
-      </c>
-      <c r="D112" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="155"/>
+      <c r="E112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="151"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="152"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -10469,10 +10469,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="118"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -10670,46 +10670,46 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="148" t="s">
+      <c r="A122" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="149"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="18">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="148" t="s">
+      <c r="D122" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="140"/>
+      <c r="E122" s="141"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="153" t="s">
+      <c r="A123" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="154"/>
+      <c r="B123" s="155"/>
       <c r="C123" s="27">
-        <v>0</v>
-      </c>
-      <c r="D123" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="155"/>
+      <c r="E123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="A124" s="157"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="150" t="s">
+      <c r="A125" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="151"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="152"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -10722,10 +10722,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="152" t="s">
+      <c r="C126" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="120"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -10923,46 +10923,46 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="149"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="18">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="148" t="s">
+      <c r="D133" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="140"/>
+      <c r="E133" s="141"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="154"/>
+      <c r="B134" s="155"/>
       <c r="C134" s="27">
         <v>0</v>
       </c>
-      <c r="D134" s="153" t="s">
+      <c r="D134" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="155"/>
+      <c r="E134" s="156"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="156"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="117"/>
+      <c r="A135" s="157"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="151"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="152"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -10975,10 +10975,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="152" t="s">
+      <c r="C137" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="118"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -11176,46 +11176,46 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="18">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="148" t="s">
+      <c r="D144" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="140"/>
+      <c r="E144" s="141"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="154"/>
+      <c r="B145" s="155"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="153" t="s">
+      <c r="D145" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="155"/>
+      <c r="E145" s="156"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="117"/>
+      <c r="A146" s="157"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="150" t="s">
+      <c r="A147" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="151"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="152"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11228,10 +11228,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="152" t="s">
+      <c r="C148" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="118"/>
+      <c r="D148" s="120"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -11429,46 +11429,46 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="149"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="18">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="148" t="s">
+      <c r="D155" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="140"/>
+      <c r="E155" s="141"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="154"/>
+      <c r="B156" s="155"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="155"/>
+      <c r="E156" s="156"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
+      <c r="A157" s="157"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="152"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11481,10 +11481,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="118"/>
+      <c r="D159" s="120"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -11682,46 +11682,46 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="148" t="s">
+      <c r="A166" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="149"/>
+      <c r="B166" s="150"/>
       <c r="C166" s="18">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="148" t="s">
+      <c r="D166" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="140"/>
+      <c r="E166" s="141"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="155"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="153" t="s">
+      <c r="D167" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="155"/>
+      <c r="E167" s="156"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="119"/>
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="119"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
-      <c r="D169" s="151"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="152"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11734,10 +11734,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="152" t="s">
+      <c r="C170" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="118"/>
+      <c r="D170" s="120"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -11935,46 +11935,46 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="148" t="s">
+      <c r="A177" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B177" s="149"/>
+      <c r="B177" s="150"/>
       <c r="C177" s="18">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="148" t="s">
+      <c r="D177" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="140"/>
+      <c r="E177" s="141"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="153" t="s">
+      <c r="A178" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="153" t="s">
+      <c r="D178" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="155"/>
+      <c r="E178" s="156"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="119"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="119"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="150" t="s">
+      <c r="A180" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="151"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="119"/>
+      <c r="D180" s="152"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -11987,10 +11987,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="152" t="s">
+      <c r="C181" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -12188,46 +12188,46 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="18">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="148" t="s">
+      <c r="D188" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="140"/>
+      <c r="E188" s="141"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="153" t="s">
+      <c r="A189" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="154"/>
+      <c r="B189" s="155"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="153" t="s">
+      <c r="D189" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="155"/>
+      <c r="E189" s="156"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="156"/>
-      <c r="B190" s="117"/>
-      <c r="C190" s="117"/>
-      <c r="D190" s="117"/>
-      <c r="E190" s="117"/>
+      <c r="A190" s="157"/>
+      <c r="B190" s="119"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="119"/>
+      <c r="E190" s="119"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="117"/>
-      <c r="C191" s="117"/>
-      <c r="D191" s="151"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="152"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12240,10 +12240,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C192" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="118"/>
+      <c r="D192" s="120"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -12441,46 +12441,46 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="148" t="s">
+      <c r="A199" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="149"/>
+      <c r="B199" s="150"/>
       <c r="C199" s="18">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="148" t="s">
+      <c r="D199" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="140"/>
+      <c r="E199" s="141"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="153" t="s">
+      <c r="A200" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="154"/>
+      <c r="B200" s="155"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="153" t="s">
+      <c r="D200" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="155"/>
+      <c r="E200" s="156"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="156"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="A201" s="157"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="150" t="s">
+      <c r="A202" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="117"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="151"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="152"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12493,10 +12493,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="118"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -12694,46 +12694,46 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="149"/>
+      <c r="B210" s="150"/>
       <c r="C210" s="18">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="148" t="s">
+      <c r="D210" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="154"/>
+      <c r="B211" s="155"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="153" t="s">
+      <c r="D211" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="155"/>
+      <c r="E211" s="156"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="156"/>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="A212" s="157"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="150" t="s">
+      <c r="A213" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="117"/>
-      <c r="C213" s="117"/>
-      <c r="D213" s="151"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="152"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -12746,10 +12746,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="152" t="s">
+      <c r="C214" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="120"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -12947,31 +12947,31 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+      <c r="A221" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="149"/>
+      <c r="B221" s="150"/>
       <c r="C221" s="18">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="148" t="s">
+      <c r="D221" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="140"/>
+      <c r="E221" s="141"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="153" t="s">
+      <c r="A222" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="154"/>
+      <c r="B222" s="155"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="155"/>
+      <c r="E222" s="156"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13775,6 +13775,15 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C16:D16"/>
@@ -13823,15 +13832,6 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C104:D104"/>
     <mergeCell ref="D222:E222"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D156:E156"/>
@@ -13919,38 +13919,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="str">
+      <c r="A3" s="151" t="str">
         <f>'dynamic Data'!B25</f>
         <v>----</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -13963,10 +13963,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -14164,46 +14164,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -14216,10 +14216,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -14417,46 +14417,46 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="18">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="155"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -14469,10 +14469,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -14670,46 +14670,46 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="149"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="140"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="154"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -14722,10 +14722,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="118"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -14923,46 +14923,46 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="140"/>
+      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="154"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="153" t="s">
+      <c r="D46" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="155"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -14975,10 +14975,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="118"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -15176,46 +15176,46 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="140"/>
+      <c r="E56" s="141"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="154"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -15228,10 +15228,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -15429,46 +15429,46 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="149"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="18">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="140"/>
+      <c r="E67" s="141"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="153" t="s">
+      <c r="D68" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="155"/>
+      <c r="E68" s="156"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="151"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -15481,10 +15481,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -15682,46 +15682,46 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="149"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="140"/>
+      <c r="E78" s="141"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="154"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="155"/>
+      <c r="E79" s="156"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="151"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="152"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -15734,10 +15734,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="152" t="s">
+      <c r="C82" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="118"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -15935,46 +15935,46 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="149"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="148" t="s">
+      <c r="D89" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="140"/>
+      <c r="E89" s="141"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="154"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="153" t="s">
+      <c r="D90" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="155"/>
+      <c r="E90" s="156"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="151"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -15987,10 +15987,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="152" t="s">
+      <c r="C93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="118"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -16188,46 +16188,46 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="18">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="140"/>
+      <c r="E100" s="141"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="154"/>
+      <c r="B101" s="155"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="153" t="s">
+      <c r="D101" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="155"/>
+      <c r="E101" s="156"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="151"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="152"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -16240,10 +16240,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="118"/>
+      <c r="D104" s="120"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -16441,46 +16441,46 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="149"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="18">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="148" t="s">
+      <c r="D111" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="140"/>
+      <c r="E111" s="141"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="153" t="s">
+      <c r="A112" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="154"/>
+      <c r="B112" s="155"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="153" t="s">
+      <c r="D112" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="155"/>
+      <c r="E112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="151"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="152"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -16493,10 +16493,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="118"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -16694,46 +16694,46 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="148" t="s">
+      <c r="A122" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="149"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="18">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="148" t="s">
+      <c r="D122" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="140"/>
+      <c r="E122" s="141"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="153" t="s">
+      <c r="A123" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="154"/>
+      <c r="B123" s="155"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="153" t="s">
+      <c r="D123" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="155"/>
+      <c r="E123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="A124" s="157"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="150" t="s">
+      <c r="A125" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="151"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="152"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -16746,10 +16746,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="152" t="s">
+      <c r="C126" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="120"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -16947,46 +16947,46 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="149"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="18">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="148" t="s">
+      <c r="D133" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="140"/>
+      <c r="E133" s="141"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="154"/>
+      <c r="B134" s="155"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="153" t="s">
+      <c r="D134" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="155"/>
+      <c r="E134" s="156"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="156"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="117"/>
+      <c r="A135" s="157"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="151"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="152"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -16999,10 +16999,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="152" t="s">
+      <c r="C137" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="118"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -17200,46 +17200,46 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="18">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="148" t="s">
+      <c r="D144" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="140"/>
+      <c r="E144" s="141"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="154"/>
+      <c r="B145" s="155"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="153" t="s">
+      <c r="D145" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="155"/>
+      <c r="E145" s="156"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="117"/>
+      <c r="A146" s="157"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="150" t="s">
+      <c r="A147" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="151"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="152"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17252,10 +17252,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="152" t="s">
+      <c r="C148" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="118"/>
+      <c r="D148" s="120"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -17453,46 +17453,46 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="149"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="18">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="148" t="s">
+      <c r="D155" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="140"/>
+      <c r="E155" s="141"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="154"/>
+      <c r="B156" s="155"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="155"/>
+      <c r="E156" s="156"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
+      <c r="A157" s="157"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="152"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17505,10 +17505,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="118"/>
+      <c r="D159" s="120"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -17706,46 +17706,46 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="148" t="s">
+      <c r="A166" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="149"/>
+      <c r="B166" s="150"/>
       <c r="C166" s="18">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="148" t="s">
+      <c r="D166" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="140"/>
+      <c r="E166" s="141"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="155"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="153" t="s">
+      <c r="D167" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="155"/>
+      <c r="E167" s="156"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="119"/>
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="119"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
-      <c r="D169" s="151"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="152"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -17758,10 +17758,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="152" t="s">
+      <c r="C170" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="118"/>
+      <c r="D170" s="120"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -17959,46 +17959,46 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="148" t="s">
+      <c r="A177" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B177" s="149"/>
+      <c r="B177" s="150"/>
       <c r="C177" s="18">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="148" t="s">
+      <c r="D177" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="140"/>
+      <c r="E177" s="141"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="153" t="s">
+      <c r="A178" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="153" t="s">
+      <c r="D178" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="155"/>
+      <c r="E178" s="156"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="119"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="119"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="150" t="s">
+      <c r="A180" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="151"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="119"/>
+      <c r="D180" s="152"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18011,10 +18011,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="152" t="s">
+      <c r="C181" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -18212,46 +18212,46 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="18">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="148" t="s">
+      <c r="D188" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="140"/>
+      <c r="E188" s="141"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="153" t="s">
+      <c r="A189" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="154"/>
+      <c r="B189" s="155"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="153" t="s">
+      <c r="D189" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="155"/>
+      <c r="E189" s="156"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="156"/>
-      <c r="B190" s="117"/>
-      <c r="C190" s="117"/>
-      <c r="D190" s="117"/>
-      <c r="E190" s="117"/>
+      <c r="A190" s="157"/>
+      <c r="B190" s="119"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="119"/>
+      <c r="E190" s="119"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="117"/>
-      <c r="C191" s="117"/>
-      <c r="D191" s="151"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="152"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18264,10 +18264,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C192" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="118"/>
+      <c r="D192" s="120"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -18465,46 +18465,46 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="148" t="s">
+      <c r="A199" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="149"/>
+      <c r="B199" s="150"/>
       <c r="C199" s="18">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="148" t="s">
+      <c r="D199" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="140"/>
+      <c r="E199" s="141"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="153" t="s">
+      <c r="A200" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="154"/>
+      <c r="B200" s="155"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="153" t="s">
+      <c r="D200" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="155"/>
+      <c r="E200" s="156"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="156"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="A201" s="157"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="150" t="s">
+      <c r="A202" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="117"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="151"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="152"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18517,10 +18517,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="118"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -18718,46 +18718,46 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="149"/>
+      <c r="B210" s="150"/>
       <c r="C210" s="18">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="148" t="s">
+      <c r="D210" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="154"/>
+      <c r="B211" s="155"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="153" t="s">
+      <c r="D211" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="155"/>
+      <c r="E211" s="156"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="156"/>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="A212" s="157"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="150" t="s">
+      <c r="A213" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="117"/>
-      <c r="C213" s="117"/>
-      <c r="D213" s="151"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="152"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -18770,10 +18770,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="152" t="s">
+      <c r="C214" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="120"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -18971,31 +18971,31 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+      <c r="A221" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="149"/>
+      <c r="B221" s="150"/>
       <c r="C221" s="18">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="148" t="s">
+      <c r="D221" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="140"/>
+      <c r="E221" s="141"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="153" t="s">
+      <c r="A222" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="154"/>
+      <c r="B222" s="155"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="155"/>
+      <c r="E222" s="156"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19943,38 +19943,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="str">
+      <c r="A3" s="162" t="str">
         <f>'dynamic Data'!B26</f>
         <v>----</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -19987,10 +19987,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -20188,46 +20188,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -20240,10 +20240,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -20441,46 +20441,46 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="18">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="155"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -20493,10 +20493,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -20694,46 +20694,46 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="149"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="140"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="154"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -20746,10 +20746,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="118"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -20947,46 +20947,46 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="140"/>
+      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="154"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="153" t="s">
+      <c r="D46" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="155"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -20999,10 +20999,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="118"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -21200,46 +21200,46 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="140"/>
+      <c r="E56" s="141"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="154"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -21252,10 +21252,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -21453,46 +21453,46 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="149"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="18">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="140"/>
+      <c r="E67" s="141"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="153" t="s">
+      <c r="D68" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="155"/>
+      <c r="E68" s="156"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="151"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -21505,10 +21505,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -21706,46 +21706,46 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="149"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="140"/>
+      <c r="E78" s="141"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="154"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="155"/>
+      <c r="E79" s="156"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="151"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="152"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -21758,10 +21758,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="152" t="s">
+      <c r="C82" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="118"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -21959,46 +21959,46 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="149"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="148" t="s">
+      <c r="D89" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="140"/>
+      <c r="E89" s="141"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="154"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="153" t="s">
+      <c r="D90" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="155"/>
+      <c r="E90" s="156"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="151"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -22011,10 +22011,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="152" t="s">
+      <c r="C93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="118"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -22212,46 +22212,46 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="18">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="140"/>
+      <c r="E100" s="141"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="154"/>
+      <c r="B101" s="155"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="153" t="s">
+      <c r="D101" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="155"/>
+      <c r="E101" s="156"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="151"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="152"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -22264,10 +22264,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="118"/>
+      <c r="D104" s="120"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -22465,46 +22465,46 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="149"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="18">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="148" t="s">
+      <c r="D111" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="140"/>
+      <c r="E111" s="141"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="153" t="s">
+      <c r="A112" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="154"/>
+      <c r="B112" s="155"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="153" t="s">
+      <c r="D112" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="155"/>
+      <c r="E112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="151"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="152"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -22517,10 +22517,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="118"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -22718,46 +22718,46 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="148" t="s">
+      <c r="A122" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="149"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="18">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="148" t="s">
+      <c r="D122" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="140"/>
+      <c r="E122" s="141"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="153" t="s">
+      <c r="A123" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="154"/>
+      <c r="B123" s="155"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="153" t="s">
+      <c r="D123" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="155"/>
+      <c r="E123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="A124" s="157"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="150" t="s">
+      <c r="A125" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="151"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="152"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -22770,10 +22770,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="152" t="s">
+      <c r="C126" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="120"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -22971,46 +22971,46 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="149"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="18">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="148" t="s">
+      <c r="D133" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="140"/>
+      <c r="E133" s="141"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="154"/>
+      <c r="B134" s="155"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="153" t="s">
+      <c r="D134" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="155"/>
+      <c r="E134" s="156"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="156"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="117"/>
+      <c r="A135" s="157"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="151"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="152"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23023,10 +23023,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="152" t="s">
+      <c r="C137" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="118"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -23224,46 +23224,46 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="18">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="148" t="s">
+      <c r="D144" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="140"/>
+      <c r="E144" s="141"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="154"/>
+      <c r="B145" s="155"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="153" t="s">
+      <c r="D145" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="155"/>
+      <c r="E145" s="156"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="117"/>
+      <c r="A146" s="157"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="150" t="s">
+      <c r="A147" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="151"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="152"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23276,10 +23276,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="152" t="s">
+      <c r="C148" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="118"/>
+      <c r="D148" s="120"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -23477,46 +23477,46 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="149"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="18">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="148" t="s">
+      <c r="D155" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="140"/>
+      <c r="E155" s="141"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="154"/>
+      <c r="B156" s="155"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="155"/>
+      <c r="E156" s="156"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
+      <c r="A157" s="157"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="152"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23529,10 +23529,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="118"/>
+      <c r="D159" s="120"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -23730,46 +23730,46 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="148" t="s">
+      <c r="A166" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="149"/>
+      <c r="B166" s="150"/>
       <c r="C166" s="18">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="148" t="s">
+      <c r="D166" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="140"/>
+      <c r="E166" s="141"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="155"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="153" t="s">
+      <c r="D167" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="155"/>
+      <c r="E167" s="156"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="119"/>
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="119"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
-      <c r="D169" s="151"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="152"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -23782,10 +23782,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="152" t="s">
+      <c r="C170" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="118"/>
+      <c r="D170" s="120"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -23983,46 +23983,46 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="148" t="s">
+      <c r="A177" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B177" s="149"/>
+      <c r="B177" s="150"/>
       <c r="C177" s="18">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="148" t="s">
+      <c r="D177" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="140"/>
+      <c r="E177" s="141"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="153" t="s">
+      <c r="A178" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="153" t="s">
+      <c r="D178" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="155"/>
+      <c r="E178" s="156"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="119"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="119"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="150" t="s">
+      <c r="A180" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="151"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="119"/>
+      <c r="D180" s="152"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24035,10 +24035,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="152" t="s">
+      <c r="C181" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -24236,46 +24236,46 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="18">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="148" t="s">
+      <c r="D188" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="140"/>
+      <c r="E188" s="141"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="153" t="s">
+      <c r="A189" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="154"/>
+      <c r="B189" s="155"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="153" t="s">
+      <c r="D189" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="155"/>
+      <c r="E189" s="156"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="156"/>
-      <c r="B190" s="117"/>
-      <c r="C190" s="117"/>
-      <c r="D190" s="117"/>
-      <c r="E190" s="117"/>
+      <c r="A190" s="157"/>
+      <c r="B190" s="119"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="119"/>
+      <c r="E190" s="119"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="117"/>
-      <c r="C191" s="117"/>
-      <c r="D191" s="151"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="152"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24288,10 +24288,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C192" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="118"/>
+      <c r="D192" s="120"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -24489,46 +24489,46 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="148" t="s">
+      <c r="A199" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="149"/>
+      <c r="B199" s="150"/>
       <c r="C199" s="18">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="148" t="s">
+      <c r="D199" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="140"/>
+      <c r="E199" s="141"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="153" t="s">
+      <c r="A200" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="154"/>
+      <c r="B200" s="155"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="153" t="s">
+      <c r="D200" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="155"/>
+      <c r="E200" s="156"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="156"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="A201" s="157"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="150" t="s">
+      <c r="A202" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="117"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="151"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="152"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24541,10 +24541,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="118"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -24742,46 +24742,46 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="149"/>
+      <c r="B210" s="150"/>
       <c r="C210" s="18">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="148" t="s">
+      <c r="D210" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="154"/>
+      <c r="B211" s="155"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="153" t="s">
+      <c r="D211" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="155"/>
+      <c r="E211" s="156"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="156"/>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="A212" s="157"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="150" t="s">
+      <c r="A213" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="117"/>
-      <c r="C213" s="117"/>
-      <c r="D213" s="151"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="152"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -24794,10 +24794,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="152" t="s">
+      <c r="C214" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="120"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -24995,31 +24995,31 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+      <c r="A221" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="149"/>
+      <c r="B221" s="150"/>
       <c r="C221" s="18">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="148" t="s">
+      <c r="D221" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="140"/>
+      <c r="E221" s="141"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="153" t="s">
+      <c r="A222" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="154"/>
+      <c r="B222" s="155"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="155"/>
+      <c r="E222" s="156"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25801,6 +25801,20 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A37:D37"/>
@@ -25818,23 +25832,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -25844,6 +25841,17 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A91:E91"/>
     <mergeCell ref="A125:D125"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D134:E134"/>
@@ -25855,16 +25863,7 @@
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A45:B45"/>
@@ -25886,26 +25885,9 @@
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="D145:E145"/>
@@ -25914,16 +25896,28 @@
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="D177:E177"/>
     <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A144:B144"/>
     <mergeCell ref="A202:D202"/>
     <mergeCell ref="A190:E190"/>
     <mergeCell ref="D200:E200"/>
     <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A180:D180"/>
     <mergeCell ref="A179:E179"/>
@@ -25942,6 +25936,12 @@
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="D199:E199"/>
     <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A201:E201"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -25967,38 +25967,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="str">
+      <c r="A3" s="151" t="str">
         <f>'dynamic Data'!B27</f>
         <v>----</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -26011,10 +26011,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -26212,46 +26212,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -26264,10 +26264,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -26465,46 +26465,46 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="18">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="155"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -26517,10 +26517,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -26718,46 +26718,46 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="149"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="140"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="154"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -26770,10 +26770,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="118"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -26971,46 +26971,46 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="140"/>
+      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="154"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="153" t="s">
+      <c r="D46" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="155"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -27023,10 +27023,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="118"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -27224,46 +27224,46 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="140"/>
+      <c r="E56" s="141"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="154"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -27276,10 +27276,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -27477,46 +27477,46 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="149"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="18">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="140"/>
+      <c r="E67" s="141"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="153" t="s">
+      <c r="D68" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="155"/>
+      <c r="E68" s="156"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="151"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -27529,10 +27529,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -27730,46 +27730,46 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="149"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="140"/>
+      <c r="E78" s="141"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="154"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="155"/>
+      <c r="E79" s="156"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="151"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="152"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -27782,10 +27782,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="152" t="s">
+      <c r="C82" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="118"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -27983,46 +27983,46 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="149"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="148" t="s">
+      <c r="D89" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="140"/>
+      <c r="E89" s="141"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="154"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="153" t="s">
+      <c r="D90" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="155"/>
+      <c r="E90" s="156"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="151"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -28035,10 +28035,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="152" t="s">
+      <c r="C93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="118"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -28236,46 +28236,46 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="18">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="140"/>
+      <c r="E100" s="141"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="154"/>
+      <c r="B101" s="155"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="153" t="s">
+      <c r="D101" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="155"/>
+      <c r="E101" s="156"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="151"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="152"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -28288,10 +28288,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="118"/>
+      <c r="D104" s="120"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -28489,46 +28489,46 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="149"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="18">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="148" t="s">
+      <c r="D111" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="140"/>
+      <c r="E111" s="141"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="153" t="s">
+      <c r="A112" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="154"/>
+      <c r="B112" s="155"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="153" t="s">
+      <c r="D112" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="155"/>
+      <c r="E112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="151"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="152"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -28541,10 +28541,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="118"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -28742,46 +28742,46 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="148" t="s">
+      <c r="A122" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="149"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="18">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="148" t="s">
+      <c r="D122" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="140"/>
+      <c r="E122" s="141"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="153" t="s">
+      <c r="A123" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="154"/>
+      <c r="B123" s="155"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="153" t="s">
+      <c r="D123" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="155"/>
+      <c r="E123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="A124" s="157"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="150" t="s">
+      <c r="A125" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="151"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="152"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -28794,10 +28794,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="152" t="s">
+      <c r="C126" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="120"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -28995,46 +28995,46 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="149"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="18">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="148" t="s">
+      <c r="D133" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="140"/>
+      <c r="E133" s="141"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="154"/>
+      <c r="B134" s="155"/>
       <c r="C134" s="24">
         <v>0</v>
       </c>
-      <c r="D134" s="153" t="s">
+      <c r="D134" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="155"/>
+      <c r="E134" s="156"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="156"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="117"/>
+      <c r="A135" s="157"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="151"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="152"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29047,10 +29047,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="152" t="s">
+      <c r="C137" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="118"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -29248,46 +29248,46 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="18">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="148" t="s">
+      <c r="D144" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="140"/>
+      <c r="E144" s="141"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="154"/>
+      <c r="B145" s="155"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="153" t="s">
+      <c r="D145" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="155"/>
+      <c r="E145" s="156"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="117"/>
+      <c r="A146" s="157"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="150" t="s">
+      <c r="A147" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="151"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="152"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29300,10 +29300,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="152" t="s">
+      <c r="C148" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="118"/>
+      <c r="D148" s="120"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -29501,46 +29501,46 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="149"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="18">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="148" t="s">
+      <c r="D155" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="140"/>
+      <c r="E155" s="141"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="154"/>
+      <c r="B156" s="155"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="155"/>
+      <c r="E156" s="156"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
+      <c r="A157" s="157"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="152"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29553,10 +29553,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="118"/>
+      <c r="D159" s="120"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -29754,46 +29754,46 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="148" t="s">
+      <c r="A166" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="149"/>
+      <c r="B166" s="150"/>
       <c r="C166" s="18">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="148" t="s">
+      <c r="D166" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="140"/>
+      <c r="E166" s="141"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="155"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="153" t="s">
+      <c r="D167" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="155"/>
+      <c r="E167" s="156"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="119"/>
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="119"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
-      <c r="D169" s="151"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="152"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -29806,10 +29806,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="152" t="s">
+      <c r="C170" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="118"/>
+      <c r="D170" s="120"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -30007,46 +30007,46 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="148" t="s">
+      <c r="A177" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B177" s="149"/>
+      <c r="B177" s="150"/>
       <c r="C177" s="18">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="148" t="s">
+      <c r="D177" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="140"/>
+      <c r="E177" s="141"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="153" t="s">
+      <c r="A178" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="153" t="s">
+      <c r="D178" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="155"/>
+      <c r="E178" s="156"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="119"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="119"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="150" t="s">
+      <c r="A180" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="151"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="119"/>
+      <c r="D180" s="152"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30059,10 +30059,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="152" t="s">
+      <c r="C181" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -30260,46 +30260,46 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="18">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="148" t="s">
+      <c r="D188" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="140"/>
+      <c r="E188" s="141"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="153" t="s">
+      <c r="A189" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="154"/>
+      <c r="B189" s="155"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="153" t="s">
+      <c r="D189" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="155"/>
+      <c r="E189" s="156"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="156"/>
-      <c r="B190" s="117"/>
-      <c r="C190" s="117"/>
-      <c r="D190" s="117"/>
-      <c r="E190" s="117"/>
+      <c r="A190" s="157"/>
+      <c r="B190" s="119"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="119"/>
+      <c r="E190" s="119"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="117"/>
-      <c r="C191" s="117"/>
-      <c r="D191" s="151"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="152"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30312,10 +30312,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C192" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="118"/>
+      <c r="D192" s="120"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -30513,46 +30513,46 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="148" t="s">
+      <c r="A199" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="149"/>
+      <c r="B199" s="150"/>
       <c r="C199" s="18">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="148" t="s">
+      <c r="D199" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="140"/>
+      <c r="E199" s="141"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="153" t="s">
+      <c r="A200" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="154"/>
+      <c r="B200" s="155"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="153" t="s">
+      <c r="D200" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="155"/>
+      <c r="E200" s="156"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="156"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="A201" s="157"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="150" t="s">
+      <c r="A202" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="117"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="151"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="152"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30565,10 +30565,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="118"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -30766,46 +30766,46 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="149"/>
+      <c r="B210" s="150"/>
       <c r="C210" s="18">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="148" t="s">
+      <c r="D210" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="154"/>
+      <c r="B211" s="155"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="153" t="s">
+      <c r="D211" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="155"/>
+      <c r="E211" s="156"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="156"/>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="A212" s="157"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="150" t="s">
+      <c r="A213" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="117"/>
-      <c r="C213" s="117"/>
-      <c r="D213" s="151"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="152"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -30818,10 +30818,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="152" t="s">
+      <c r="C214" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="120"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -31019,31 +31019,31 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+      <c r="A221" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="149"/>
+      <c r="B221" s="150"/>
       <c r="C221" s="18">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="148" t="s">
+      <c r="D221" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="140"/>
+      <c r="E221" s="141"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="153" t="s">
+      <c r="A222" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="154"/>
+      <c r="B222" s="155"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="155"/>
+      <c r="E222" s="156"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31947,6 +31947,8 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D56:E56"/>
@@ -31964,8 +31966,6 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31991,38 +31991,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="str">
+      <c r="A3" s="151" t="str">
         <f>'dynamic Data'!B28</f>
         <v>----</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="5" t="str">
         <f>'dynamic Data'!$B$2</f>
         <v>22.04 - 28.04.2019</v>
@@ -32035,10 +32035,10 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
@@ -32236,46 +32236,46 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="18">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="5" t="str">
         <f>'dynamic Data'!$B$3</f>
         <v>29.04 - 05.05.2019</v>
@@ -32288,10 +32288,10 @@
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
@@ -32489,46 +32489,46 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="18">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="155"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="151"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="5" t="str">
         <f>'dynamic Data'!$B$4</f>
         <v>06.05 - 12.05.2019</v>
@@ -32541,10 +32541,10 @@
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -32742,46 +32742,46 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="149"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="18">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="140"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="154"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="24">
         <v>0</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="152"/>
       <c r="E37" s="5" t="str">
         <f>'dynamic Data'!$B$5</f>
         <v>13.05 - 19.05.2012</v>
@@ -32794,10 +32794,10 @@
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="152" t="s">
+      <c r="C38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="118"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
@@ -32995,46 +32995,46 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="18">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="140"/>
+      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="154"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="153" t="s">
+      <c r="D46" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="155"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="151"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="5" t="str">
         <f>'dynamic Data'!$B$6</f>
         <v>20.05 - 26.05.2019</v>
@@ -33047,10 +33047,10 @@
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="118"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
@@ -33248,46 +33248,46 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="18">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="148" t="s">
+      <c r="D56" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="140"/>
+      <c r="E56" s="141"/>
     </row>
     <row r="57" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="154"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="152"/>
       <c r="E59" s="5" t="str">
         <f>'dynamic Data'!$B$7</f>
         <v>27.05 - 02.06.2019</v>
@@ -33300,10 +33300,10 @@
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
@@ -33501,46 +33501,46 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="149"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="18">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="140"/>
+      <c r="E67" s="141"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="24">
         <v>0</v>
       </c>
-      <c r="D68" s="153" t="s">
+      <c r="D68" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="155"/>
+      <c r="E68" s="156"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="151"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="5" t="str">
         <f>'dynamic Data'!$B$8</f>
         <v>03.06 - 09.06.2019</v>
@@ -33553,10 +33553,10 @@
       <c r="B71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
@@ -33754,46 +33754,46 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="149"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="18">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="148" t="s">
+      <c r="D78" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="140"/>
+      <c r="E78" s="141"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="154"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="24">
         <v>0</v>
       </c>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="155"/>
+      <c r="E79" s="156"/>
     </row>
     <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="157"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
     </row>
     <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150" t="s">
+      <c r="A81" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="151"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="152"/>
       <c r="E81" s="5" t="str">
         <f>'dynamic Data'!$B$9</f>
         <v>10.06 - 16.06.2019</v>
@@ -33806,10 +33806,10 @@
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="152" t="s">
+      <c r="C82" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="118"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
@@ -34007,46 +34007,46 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="149"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="18">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="148" t="s">
+      <c r="D89" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="140"/>
+      <c r="E89" s="141"/>
     </row>
     <row r="90" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="154"/>
+      <c r="B90" s="155"/>
       <c r="C90" s="24">
         <v>0</v>
       </c>
-      <c r="D90" s="153" t="s">
+      <c r="D90" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="155"/>
+      <c r="E90" s="156"/>
     </row>
     <row r="91" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
     </row>
     <row r="92" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150" t="s">
+      <c r="A92" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="151"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="5" t="str">
         <f>'dynamic Data'!$B$10</f>
         <v>17.06 - 23.06.2019</v>
@@ -34059,10 +34059,10 @@
       <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="152" t="s">
+      <c r="C93" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="118"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -34260,46 +34260,46 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="18">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="148" t="s">
+      <c r="D100" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="140"/>
+      <c r="E100" s="141"/>
     </row>
     <row r="101" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="154"/>
+      <c r="B101" s="155"/>
       <c r="C101" s="24">
         <v>0</v>
       </c>
-      <c r="D101" s="153" t="s">
+      <c r="D101" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="155"/>
+      <c r="E101" s="156"/>
     </row>
     <row r="102" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="157"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
     </row>
     <row r="103" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="151"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="152"/>
       <c r="E103" s="5" t="str">
         <f>'dynamic Data'!$B$11</f>
         <v>24.06 - 30.06.2019</v>
@@ -34312,10 +34312,10 @@
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="118"/>
+      <c r="D104" s="120"/>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
@@ -34513,46 +34513,46 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="149"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="18">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="148" t="s">
+      <c r="D111" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="140"/>
+      <c r="E111" s="141"/>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="153" t="s">
+      <c r="A112" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="154"/>
+      <c r="B112" s="155"/>
       <c r="C112" s="24">
         <v>0</v>
       </c>
-      <c r="D112" s="153" t="s">
+      <c r="D112" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="155"/>
+      <c r="E112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="151"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="152"/>
       <c r="E114" s="5" t="str">
         <f>'dynamic Data'!$B$12</f>
         <v>01.07 - 07.07.2019</v>
@@ -34565,10 +34565,10 @@
       <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="118"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
@@ -34766,46 +34766,46 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="148" t="s">
+      <c r="A122" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="149"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="18">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="148" t="s">
+      <c r="D122" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="140"/>
+      <c r="E122" s="141"/>
     </row>
     <row r="123" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="153" t="s">
+      <c r="A123" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="154"/>
+      <c r="B123" s="155"/>
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="153" t="s">
+      <c r="D123" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="155"/>
+      <c r="E123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="A124" s="157"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="119"/>
     </row>
     <row r="125" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="150" t="s">
+      <c r="A125" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="151"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
+      <c r="D125" s="152"/>
       <c r="E125" s="5" t="str">
         <f>'dynamic Data'!$B$13</f>
         <v>08.07 - 14.07.2019</v>
@@ -34818,10 +34818,10 @@
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="152" t="s">
+      <c r="C126" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="118"/>
+      <c r="D126" s="120"/>
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
@@ -35019,46 +35019,46 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="149"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="18">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="148" t="s">
+      <c r="D133" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="140"/>
+      <c r="E133" s="141"/>
     </row>
     <row r="134" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="154"/>
+      <c r="B134" s="155"/>
       <c r="C134" s="69">
         <v>0</v>
       </c>
-      <c r="D134" s="153" t="s">
+      <c r="D134" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="155"/>
+      <c r="E134" s="156"/>
     </row>
     <row r="135" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="156"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="117"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="117"/>
+      <c r="A135" s="157"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
     </row>
     <row r="136" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="151"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="152"/>
       <c r="E136" s="5" t="str">
         <f>'dynamic Data'!$B$14</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35071,10 +35071,10 @@
       <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="152" t="s">
+      <c r="C137" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="118"/>
+      <c r="D137" s="120"/>
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
@@ -35272,46 +35272,46 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="18">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="148" t="s">
+      <c r="D144" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="140"/>
+      <c r="E144" s="141"/>
     </row>
     <row r="145" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="154"/>
+      <c r="B145" s="155"/>
       <c r="C145" s="24">
         <v>0</v>
       </c>
-      <c r="D145" s="153" t="s">
+      <c r="D145" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="155"/>
+      <c r="E145" s="156"/>
     </row>
     <row r="146" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
-      <c r="E146" s="117"/>
+      <c r="A146" s="157"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
     </row>
     <row r="147" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="150" t="s">
+      <c r="A147" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="151"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="152"/>
       <c r="E147" s="5" t="str">
         <f>'dynamic Data'!$B$15</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35324,10 +35324,10 @@
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="152" t="s">
+      <c r="C148" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="118"/>
+      <c r="D148" s="120"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -35525,46 +35525,46 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="149"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="18">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="148" t="s">
+      <c r="D155" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="140"/>
+      <c r="E155" s="141"/>
     </row>
     <row r="156" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="153" t="s">
+      <c r="A156" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="154"/>
+      <c r="B156" s="155"/>
       <c r="C156" s="24">
         <v>0</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="155"/>
+      <c r="E156" s="156"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
+      <c r="A157" s="157"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="117"/>
-      <c r="C158" s="117"/>
-      <c r="D158" s="151"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="152"/>
       <c r="E158" s="5" t="str">
         <f>'dynamic Data'!$B$16</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35577,10 +35577,10 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="118"/>
+      <c r="D159" s="120"/>
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
@@ -35778,46 +35778,46 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="148" t="s">
+      <c r="A166" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="149"/>
+      <c r="B166" s="150"/>
       <c r="C166" s="18">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="148" t="s">
+      <c r="D166" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="140"/>
+      <c r="E166" s="141"/>
     </row>
     <row r="167" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="153" t="s">
+      <c r="A167" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="155"/>
       <c r="C167" s="24">
         <v>0</v>
       </c>
-      <c r="D167" s="153" t="s">
+      <c r="D167" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="155"/>
+      <c r="E167" s="156"/>
     </row>
     <row r="168" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
+      <c r="A168" s="157"/>
+      <c r="B168" s="119"/>
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="119"/>
     </row>
     <row r="169" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
-      <c r="D169" s="151"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="119"/>
+      <c r="D169" s="152"/>
       <c r="E169" s="5" t="str">
         <f>'dynamic Data'!$B$17</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -35830,10 +35830,10 @@
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="152" t="s">
+      <c r="C170" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="118"/>
+      <c r="D170" s="120"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -36031,46 +36031,46 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="148" t="s">
+      <c r="A177" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B177" s="149"/>
+      <c r="B177" s="150"/>
       <c r="C177" s="18">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="148" t="s">
+      <c r="D177" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="140"/>
+      <c r="E177" s="141"/>
     </row>
     <row r="178" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="153" t="s">
+      <c r="A178" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="155"/>
       <c r="C178" s="24">
         <v>0</v>
       </c>
-      <c r="D178" s="153" t="s">
+      <c r="D178" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="155"/>
+      <c r="E178" s="156"/>
     </row>
     <row r="179" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="156"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
+      <c r="A179" s="157"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="119"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="119"/>
     </row>
     <row r="180" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="150" t="s">
+      <c r="A180" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="151"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="119"/>
+      <c r="D180" s="152"/>
       <c r="E180" s="5" t="str">
         <f>'dynamic Data'!$B$18</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36083,10 +36083,10 @@
       <c r="B181" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="152" t="s">
+      <c r="C181" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -36284,46 +36284,46 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="18">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="148" t="s">
+      <c r="D188" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="140"/>
+      <c r="E188" s="141"/>
     </row>
     <row r="189" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="153" t="s">
+      <c r="A189" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="154"/>
+      <c r="B189" s="155"/>
       <c r="C189" s="24">
         <v>0</v>
       </c>
-      <c r="D189" s="153" t="s">
+      <c r="D189" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="155"/>
+      <c r="E189" s="156"/>
     </row>
     <row r="190" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="156"/>
-      <c r="B190" s="117"/>
-      <c r="C190" s="117"/>
-      <c r="D190" s="117"/>
-      <c r="E190" s="117"/>
+      <c r="A190" s="157"/>
+      <c r="B190" s="119"/>
+      <c r="C190" s="119"/>
+      <c r="D190" s="119"/>
+      <c r="E190" s="119"/>
     </row>
     <row r="191" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B191" s="117"/>
-      <c r="C191" s="117"/>
-      <c r="D191" s="151"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="119"/>
+      <c r="D191" s="152"/>
       <c r="E191" s="5" t="str">
         <f>'dynamic Data'!$B$19</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36336,10 +36336,10 @@
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C192" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="118"/>
+      <c r="D192" s="120"/>
       <c r="E192" s="7" t="s">
         <v>9</v>
       </c>
@@ -36537,46 +36537,46 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="148" t="s">
+      <c r="A199" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="149"/>
+      <c r="B199" s="150"/>
       <c r="C199" s="18">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="148" t="s">
+      <c r="D199" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="140"/>
+      <c r="E199" s="141"/>
     </row>
     <row r="200" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="153" t="s">
+      <c r="A200" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="154"/>
+      <c r="B200" s="155"/>
       <c r="C200" s="24">
         <v>0</v>
       </c>
-      <c r="D200" s="153" t="s">
+      <c r="D200" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="155"/>
+      <c r="E200" s="156"/>
     </row>
     <row r="201" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="156"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="A201" s="157"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
     </row>
     <row r="202" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="150" t="s">
+      <c r="A202" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="B202" s="117"/>
-      <c r="C202" s="117"/>
-      <c r="D202" s="151"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="152"/>
       <c r="E202" s="5" t="str">
         <f>'dynamic Data'!$B$20</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36589,10 +36589,10 @@
       <c r="B203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="118"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="7" t="s">
         <v>9</v>
       </c>
@@ -36790,46 +36790,46 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="148" t="s">
+      <c r="A210" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="149"/>
+      <c r="B210" s="150"/>
       <c r="C210" s="18">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="148" t="s">
+      <c r="D210" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="211" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="153" t="s">
+      <c r="A211" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="154"/>
+      <c r="B211" s="155"/>
       <c r="C211" s="24">
         <v>0</v>
       </c>
-      <c r="D211" s="153" t="s">
+      <c r="D211" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="155"/>
+      <c r="E211" s="156"/>
     </row>
     <row r="212" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="156"/>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="A212" s="157"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="119"/>
     </row>
     <row r="213" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="150" t="s">
+      <c r="A213" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B213" s="117"/>
-      <c r="C213" s="117"/>
-      <c r="D213" s="151"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="152"/>
       <c r="E213" s="5" t="str">
         <f>'dynamic Data'!$B$21</f>
         <v>DD.MM - DD.MM.YYYY</v>
@@ -36842,10 +36842,10 @@
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="152" t="s">
+      <c r="C214" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="118"/>
+      <c r="D214" s="120"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -37043,31 +37043,31 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="148" t="s">
+      <c r="A221" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="149"/>
+      <c r="B221" s="150"/>
       <c r="C221" s="18">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="148" t="s">
+      <c r="D221" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="140"/>
+      <c r="E221" s="141"/>
     </row>
     <row r="222" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="153" t="s">
+      <c r="A222" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="154"/>
+      <c r="B222" s="155"/>
       <c r="C222" s="24">
         <v>0</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="155"/>
+      <c r="E222" s="156"/>
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37849,6 +37849,20 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A37:D37"/>
@@ -37866,23 +37880,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -37892,6 +37889,17 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A91:E91"/>
     <mergeCell ref="A125:D125"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D134:E134"/>
@@ -37903,16 +37911,7 @@
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A45:B45"/>
@@ -37934,26 +37933,9 @@
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="D145:E145"/>
@@ -37962,16 +37944,28 @@
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="D177:E177"/>
     <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A144:B144"/>
     <mergeCell ref="A202:D202"/>
     <mergeCell ref="A190:E190"/>
     <mergeCell ref="D200:E200"/>
     <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A180:D180"/>
     <mergeCell ref="A179:E179"/>
@@ -37990,6 +37984,12 @@
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="D199:E199"/>
     <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A201:E201"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -38012,10 +38012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -38190,14 +38190,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
-      <c r="B22" s="118"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="120"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="118"/>
+      <c r="B23" s="120"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
